--- a/데이터 안심구역/excel_데이터 시트 분석 계획.xlsx
+++ b/데이터 안심구역/excel_데이터 시트 분석 계획.xlsx
@@ -1,31 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cakd7\cakd7_class\데이터 안심구역\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C2B81-8DD6-4C2A-A6DA-BB918AD0410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="G96">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">주중/주말 데이터를 얻으려면 유동인구 데이터를 가공하는 수밖에 없음
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>주중/주말 데이터를 얻으려면 유동인구 데이터를 가공하는 수밖에 없음
 	-최애림</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E101">
+    <comment ref="E101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">기간 정할 것
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>기간 정할 것
 	-최애림</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -214,24 +253,30 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- 가맹점상태코드 1(신규), 2(유효), 3(해지) : 카드사와 계약 신규, 유지, 해지로 보임 
    =&gt; 해지의 경우, </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <family val="2"/>
       </rPr>
       <t>사유가 대부분 폐업의 경우가 많기 때문이라는 근거</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">를 가지고 폐업 가맹점 정보를 제시해야 할 듯
 - 가동코드 1(이전 달에 매출이 있는 경우 가동) 2(이전 달에 매출이 없는 경우 미가동)
@@ -239,25 +284,31 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <family val="2"/>
       </rPr>
       <t>지역이 417개밖에 존재</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">하지 않음
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFEA4335"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFEA4335"/>
+        <family val="2"/>
       </rPr>
       <t>- 해결방안 : 가동코드가 2고 상태코드가 3이면 폐업으로 간주하기로 함 &gt;&gt; 데이터 확인 필요</t>
     </r>
@@ -265,17 +316,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">*대표성 확보
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t>- 가맹점 카드해지 = 폐업 근거 자료 찾기</t>
     </r>
@@ -392,24 +447,30 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- 주거 인구수: 행정동에서 거주 주민이 지정 시간대에 해당 행정동에 존재할 경우를 추산해서 기록
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF4285F4"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF4285F4"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  =&gt; 주거 + 방문 인구수로 유동인구 계산!</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 - 직장 인구수: 행정동에서 직장 인구가 지정 시간대에 해당 행정동에 존재할 경우를 추산해서 기록
@@ -418,354 +479,325 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <family val="2"/>
       </rPr>
       <t>주중/주말 인구 분리하기 어려움</t>
     </r>
   </si>
   <si>
+    <t>자택직장정보</t>
+  </si>
+  <si>
+    <t>시군구자택주소</t>
+  </si>
+  <si>
+    <t>법정동자택주소</t>
+  </si>
+  <si>
+    <t>시군구직장주소</t>
+  </si>
+  <si>
+    <t>법정동직장주소</t>
+  </si>
+  <si>
+    <t>집계인구수</t>
+  </si>
+  <si>
+    <t>월환산평균소득금액</t>
+  </si>
+  <si>
+    <t>월환산중위소득금액</t>
+  </si>
+  <si>
+    <t>월평균카드소비금액</t>
+  </si>
+  <si>
+    <t>경제활동인구수</t>
+  </si>
+  <si>
+    <t>27230*****</t>
+  </si>
+  <si>
+    <t>3**</t>
+  </si>
+  <si>
+    <t>37**</t>
+  </si>
+  <si>
+    <t>35**</t>
+  </si>
+  <si>
+    <t>24**</t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">*대표성 확보
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>- 전국민 skt 이용률 = 47% up</t>
-    </r>
-  </si>
-  <si>
-    <t>자택직장정보</t>
-  </si>
-  <si>
-    <t>시군구자택주소</t>
-  </si>
-  <si>
-    <t>법정동자택주소</t>
-  </si>
-  <si>
-    <t>시군구직장주소</t>
-  </si>
-  <si>
-    <t>법정동직장주소</t>
-  </si>
-  <si>
-    <t>집계인구수</t>
-  </si>
-  <si>
-    <t>월환산평균소득금액</t>
-  </si>
-  <si>
-    <t>월환산중위소득금액</t>
-  </si>
-  <si>
-    <t>월평균카드소비금액</t>
-  </si>
-  <si>
-    <t>경제활동인구수</t>
-  </si>
-  <si>
-    <t>27230*****</t>
-  </si>
-  <si>
-    <t>3**</t>
-  </si>
-  <si>
-    <t>37**</t>
-  </si>
-  <si>
-    <t>35**</t>
-  </si>
-  <si>
-    <t>24**</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="4"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- 법정동자택주소: 읍면동주소와 같고 코드밖에 없어서 코드가 아닌 동이름으로 바꿔줘야함
 - </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="4"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">법정동이 중복제거하면 353-355개밖에 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
         <rFont val="Arial"/>
-        <color theme="4"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">없고, </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="4"/>
+        <family val="2"/>
       </rPr>
       <t>법정동명과 법정동코드 중복제거 개수가 다름</t>
     </r>
   </si>
   <si>
+    <t>- 활용되는 데이터프레임의 지역구 동이 행정동/읍면동 주소인지 확인하고, 어떤 동명을 사용할지/변환할지 확인</t>
+  </si>
+  <si>
+    <t>*질문</t>
+  </si>
+  <si>
+    <t>*정리</t>
+  </si>
+  <si>
+    <t>1. 서비스 인구정보의 '주거 인구수', '직장인구수', '방문인구수'가 전국 모든 지역의 주거 인구수가 맞는지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 유동인구수 </t>
+  </si>
+  <si>
+    <t>2. 지역별 가맹점정보의 '가맹점상태코드'의 value 확인: 신규, 유효, 해지의 정의</t>
+  </si>
+  <si>
+    <t>* 기간() 평일/주말 구분 후 합쳐서 평균내기</t>
+  </si>
+  <si>
+    <t>3. 자택직장정보의 '법정동자택주소' 의미 (코리아크레딧뷰로)
+(2019년 1월~2020년 12월)</t>
+  </si>
+  <si>
+    <t>- 행정동별, 시간대별(1-24), 성별, 연령별(10~70대)로 정리</t>
+  </si>
+  <si>
+    <t>- 행정동별, 시간대별(오전, 오후, 저녁 등), 성별, 연령대별로 정리</t>
+  </si>
+  <si>
+    <t>- 행정동별, 성별, 연령대별로 정리</t>
+  </si>
+  <si>
+    <t>2. 주거 인구수</t>
+  </si>
+  <si>
+    <t>- kosis 행정구역 주민등록인구(2022.06)</t>
+  </si>
+  <si>
+    <t>- 지역구별/행정동별/연령별로 정리</t>
+  </si>
+  <si>
+    <t>3. 직장 인구수</t>
+  </si>
+  <si>
+    <t>-이거 연령이 의미없는게 skt 고객 한명의 연령인거같아요</t>
+  </si>
+  <si>
+    <t>4. 가맹점 정보[가맹점상태코드가 1(신규),3(유효)인 경우]</t>
+  </si>
+  <si>
+    <t>- 지역구별/행정동별/업종대분류별 가맹점수</t>
+  </si>
+  <si>
+    <t>- 지역구별/행정동별/업종대분류별/업종중분류별 가맹점수</t>
+  </si>
+  <si>
+    <t>*반입 신청</t>
+  </si>
+  <si>
+    <t>(8/4)</t>
+  </si>
+  <si>
+    <t>5. 지역별 매출 및 이용고객 정보</t>
+  </si>
+  <si>
+    <t>1. 주거 인구수 데이터</t>
+  </si>
+  <si>
+    <t>- 지역구별/행정동별/업종대분류별 결제건수, 결제금액</t>
+  </si>
+  <si>
+    <t>2. 코드</t>
+  </si>
+  <si>
+    <t>2. 코드(폰트 및 시각화)</t>
+  </si>
+  <si>
+    <t>- 지역구별/행정동별/업종대분류별/업종중분류별 결제건수, 결제금액</t>
+  </si>
+  <si>
+    <t>3. 한글 폰트</t>
+  </si>
+  <si>
+    <t>3. 한글폰트</t>
+  </si>
+  <si>
+    <t>6. 자택직장정보</t>
+  </si>
+  <si>
+    <t>* 변수 추가</t>
+  </si>
+  <si>
+    <t>- 유동인구 대비 가맹점 수</t>
+  </si>
+  <si>
+    <t>- 거주인구 대비 가맹점 수</t>
+  </si>
+  <si>
+    <t>- 업종별 가맹점휴폐업 동향 (분석 : 위드 코로나 이후(작년 11월))</t>
+  </si>
+  <si>
+    <t>*가공 데이터프레임</t>
+  </si>
+  <si>
+    <t>행정동</t>
+  </si>
+  <si>
+    <t>법정동/읍면동</t>
+  </si>
+  <si>
+    <t>핫플지수에 활용될 변수</t>
+  </si>
+  <si>
+    <t>군집에 활용될 변수</t>
+  </si>
+  <si>
+    <t>추후 시각화 부분</t>
+  </si>
+  <si>
+    <t>지역 특징 정보</t>
+  </si>
+  <si>
+    <t>지역구(25개)</t>
+  </si>
+  <si>
+    <t>동</t>
+  </si>
+  <si>
+    <t>총 유동인구 수</t>
+  </si>
+  <si>
+    <t>총 주거 인구수</t>
+  </si>
+  <si>
+    <t>총 직장 인구수</t>
+  </si>
+  <si>
+    <t>월 평균 소득금액</t>
+  </si>
+  <si>
+    <t>월 평균 카드 소비금액</t>
+  </si>
+  <si>
+    <t>1. 유동인구 수</t>
+  </si>
+  <si>
+    <t>1. 지역별 특징 정보</t>
+  </si>
+  <si>
+    <t>*유동인구 시간별 세부조회 가능</t>
+  </si>
+  <si>
+    <t>데이터프레임 1</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>2. 주거인구 수</t>
+  </si>
+  <si>
+    <t>- 유동인구 수</t>
+  </si>
+  <si>
+    <t>*주거인구 성/연령별 세부조회 가능</t>
+  </si>
+  <si>
+    <t>25*426*42</t>
+  </si>
+  <si>
+    <t>3. 직장인구 수</t>
+  </si>
+  <si>
+    <t>- 주거인구 수</t>
+  </si>
+  <si>
+    <t>4. 주거인구의 월 평균 소득금액</t>
+  </si>
+  <si>
+    <t>4. 월 평균 소득금액</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   주거인구의 월 평균 소득금액</t>
+  </si>
+  <si>
+    <t>5. 주거인구의 월 평균 소비금액</t>
+  </si>
+  <si>
+    <t>5. 월 평균 소비금액</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   주거인구의 월 평균 소비금액</t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">*자료 표준화
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>- 법정동&lt;-&gt;행정동</t>
-    </r>
-  </si>
-  <si>
-    <t>- 활용되는 데이터프레임의 지역구 동이 행정동/읍면동 주소인지 확인하고, 어떤 동명을 사용할지/변환할지 확인</t>
-  </si>
-  <si>
-    <t>*질문</t>
-  </si>
-  <si>
-    <t>*정리</t>
-  </si>
-  <si>
-    <t>1. 서비스 인구정보의 '주거 인구수', '직장인구수', '방문인구수'가 전국 모든 지역의 주거 인구수가 맞는지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 유동인구수 </t>
-  </si>
-  <si>
-    <t>2. 지역별 가맹점정보의 '가맹점상태코드'의 value 확인: 신규, 유효, 해지의 정의</t>
-  </si>
-  <si>
-    <t>* 기간() 평일/주말 구분 후 합쳐서 평균내기</t>
-  </si>
-  <si>
-    <t>3. 자택직장정보의 '법정동자택주소' 의미 (코리아크레딧뷰로)
-(2019년 1월~2020년 12월)</t>
-  </si>
-  <si>
-    <t>- 행정동별, 시간대별(1-24), 성별, 연령별(10~70대)로 정리</t>
-  </si>
-  <si>
-    <t>- 행정동별, 시간대별(오전, 오후, 저녁 등), 성별, 연령대별로 정리</t>
-  </si>
-  <si>
-    <t>- 행정동별, 성별, 연령대별로 정리</t>
-  </si>
-  <si>
-    <t>2. 주거 인구수</t>
-  </si>
-  <si>
-    <t>- kosis 행정구역 주민등록인구(2022.06)</t>
-  </si>
-  <si>
-    <t>- 지역구별/행정동별/연령별로 정리</t>
-  </si>
-  <si>
-    <t>3. 직장 인구수</t>
-  </si>
-  <si>
-    <t>-이거 연령이 의미없는게 skt 고객 한명의 연령인거같아요</t>
-  </si>
-  <si>
-    <t>4. 가맹점 정보[가맹점상태코드가 1(신규),3(유효)인 경우]</t>
-  </si>
-  <si>
-    <t>- 지역구별/행정동별/업종대분류별 가맹점수</t>
-  </si>
-  <si>
-    <t>- 지역구별/행정동별/업종대분류별/업종중분류별 가맹점수</t>
-  </si>
-  <si>
-    <t>*반입 신청</t>
-  </si>
-  <si>
-    <t>(8/4)</t>
-  </si>
-  <si>
-    <t>(8/9?10?)</t>
-  </si>
-  <si>
-    <t>5. 지역별 매출 및 이용고객 정보</t>
-  </si>
-  <si>
-    <t>1. 주거 인구수 데이터</t>
-  </si>
-  <si>
-    <t>- 지역구별/행정동별/업종대분류별 결제건수, 결제금액</t>
-  </si>
-  <si>
-    <t>2. 코드</t>
-  </si>
-  <si>
-    <t>2. 코드(폰트 및 시각화)</t>
-  </si>
-  <si>
-    <t>- 지역구별/행정동별/업종대분류별/업종중분류별 결제건수, 결제금액</t>
-  </si>
-  <si>
-    <t>3. 한글 폰트</t>
-  </si>
-  <si>
-    <t>3. 한글폰트</t>
-  </si>
-  <si>
-    <t>6. 자택직장정보</t>
-  </si>
-  <si>
-    <t>* 변수 추가</t>
-  </si>
-  <si>
-    <t>- 유동인구 대비 가맹점 수</t>
-  </si>
-  <si>
-    <t>- 거주인구 대비 가맹점 수</t>
-  </si>
-  <si>
-    <t>- 업종별 가맹점휴폐업 동향 (분석 : 위드 코로나 이후(작년 11월))</t>
-  </si>
-  <si>
-    <t>*가공 데이터프레임</t>
-  </si>
-  <si>
-    <t>행정동</t>
-  </si>
-  <si>
-    <t>법정동/읍면동</t>
-  </si>
-  <si>
-    <t>핫플지수에 활용될 변수</t>
-  </si>
-  <si>
-    <t>군집에 활용될 변수</t>
-  </si>
-  <si>
-    <t>추후 시각화 부분</t>
-  </si>
-  <si>
-    <t>지역 특징 정보</t>
-  </si>
-  <si>
-    <t>지역구(25개)</t>
-  </si>
-  <si>
-    <t>동</t>
-  </si>
-  <si>
-    <t>총 유동인구 수</t>
-  </si>
-  <si>
-    <t>총 주거 인구수</t>
-  </si>
-  <si>
-    <t>총 직장 인구수</t>
-  </si>
-  <si>
-    <t>월 평균 소득금액</t>
-  </si>
-  <si>
-    <t>월 평균 카드 소비금액</t>
-  </si>
-  <si>
-    <t>1. 유동인구 수</t>
-  </si>
-  <si>
-    <t>1. 지역별 특징 정보</t>
-  </si>
-  <si>
-    <t>*유동인구 시간별 세부조회 가능</t>
-  </si>
-  <si>
-    <t>데이터프레임 1</t>
-  </si>
-  <si>
-    <t>강남구</t>
-  </si>
-  <si>
-    <t>2. 주거인구 수(통계청)</t>
-  </si>
-  <si>
-    <t>2. 주거인구 수</t>
-  </si>
-  <si>
-    <t>- 유동인구 수</t>
-  </si>
-  <si>
-    <t>*주거인구 성/연령별 세부조회 가능</t>
-  </si>
-  <si>
-    <t>25*426*42</t>
-  </si>
-  <si>
-    <t>3. 직장인구 수</t>
-  </si>
-  <si>
-    <t>- 주거인구 수</t>
-  </si>
-  <si>
-    <t>4. 주거인구의 월 평균 소득금액</t>
-  </si>
-  <si>
-    <t>4. 월 평균 소득금액</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   주거인구의 월 평균 소득금액</t>
-  </si>
-  <si>
-    <t>5. 주거인구의 월 평균 소비금액</t>
-  </si>
-  <si>
-    <t>5. 월 평균 소비금액</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   주거인구의 월 평균 소비금액</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">6. </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>특정 업종대분류(f&amp;b 등)</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 총 결제금액(결제건수 대비?)</t>
     </r>
@@ -1015,31 +1047,250 @@
   </si>
   <si>
     <t>df2</t>
+  </si>
+  <si>
+    <t>(8/9)</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대표성</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전국민</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> skt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용률</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 47% up</t>
+    </r>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">표준화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>법정동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행정동</t>
+    </r>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주거인구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="50">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1047,214 +1298,315 @@
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Noto"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF757575"/>
       <name val="Noto"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF757575"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Noto"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF757575"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF757575"/>
       <name val="Noto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="4"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="4"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Noto"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color theme="4"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Lato"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Lato"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Noto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF757575"/>
       <name val="Noto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFEA4335"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1262,7 +1614,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1344,22 +1696,34 @@
     </fill>
   </fills>
   <borders count="19">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1374,6 +1738,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1382,97 +1747,145 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFFF0000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFFF0000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
         <color rgb="FFFF0000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFF0000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFF0000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFF0000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1482,366 +1895,250 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="132">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="13" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="31" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="31" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="31" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="9" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="32" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="13" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2031,35 +2328,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:Z1060"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.5"/>
-    <col customWidth="1" min="2" max="2" width="22.88"/>
-    <col customWidth="1" min="3" max="3" width="18.38"/>
-    <col customWidth="1" min="4" max="4" width="14.63"/>
-    <col customWidth="1" min="5" max="5" width="19.0"/>
-    <col customWidth="1" min="6" max="7" width="15.0"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
-    <col customWidth="1" min="9" max="9" width="15.0"/>
-    <col customWidth="1" min="10" max="10" width="18.38"/>
-    <col customWidth="1" min="11" max="11" width="15.75"/>
-    <col customWidth="1" min="12" max="12" width="19.0"/>
-    <col customWidth="1" min="13" max="13" width="26.0"/>
-    <col customWidth="1" min="14" max="14" width="18.13"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:26" ht="19.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2378,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2089,7 +2392,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -2119,7 +2422,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15">
       <c r="A5" s="3"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
@@ -2169,7 +2472,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
         <v>13</v>
@@ -2178,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="10">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>15</v>
@@ -2219,7 +2522,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
@@ -2269,7 +2572,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
         <v>15</v>
@@ -2319,7 +2622,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>31</v>
@@ -2371,7 +2674,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
         <v>16</v>
@@ -2423,7 +2726,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="12.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2437,7 +2740,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="12.75">
       <c r="B12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2453,7 +2756,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26">
       <c r="B13" s="16" t="s">
         <v>47</v>
       </c>
@@ -2485,9 +2788,9 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15">
       <c r="B14" s="21">
-        <v>202206.0</v>
+        <v>202206</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>56</v>
@@ -2499,25 +2802,25 @@
         <v>57</v>
       </c>
       <c r="F14" s="22">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="22">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="H14" s="22">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="12.75">
       <c r="B15" s="23" t="s">
         <v>58</v>
       </c>
@@ -2533,7 +2836,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" ht="53.25" customHeight="1">
+    <row r="16" spans="1:26" ht="53.25" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
@@ -2551,7 +2854,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" ht="12.75">
       <c r="B17" s="27"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2565,7 +2868,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="12.75">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
@@ -2580,7 +2883,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="31"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="32"/>
       <c r="B19" s="14" t="s">
         <v>61</v>
@@ -2597,7 +2900,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="33"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13">
       <c r="A20" s="32"/>
       <c r="B20" s="16" t="s">
         <v>47</v>
@@ -2634,10 +2937,10 @@
       </c>
       <c r="M20" s="33"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" s="32"/>
       <c r="B21" s="21">
-        <v>202206.0</v>
+        <v>202206</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>67</v>
@@ -2649,29 +2952,29 @@
         <v>68</v>
       </c>
       <c r="F21" s="22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="22">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="H21" s="22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="22">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M21" s="33"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" ht="15">
       <c r="A22" s="32"/>
       <c r="B22" s="35" t="s">
         <v>69</v>
@@ -2698,25 +3001,25 @@
       <c r="L22" s="2"/>
       <c r="M22" s="33"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" ht="15">
       <c r="A23" s="32"/>
       <c r="B23" s="22">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="22">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="22">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="22">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2725,7 +3028,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="33"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" ht="12.75">
       <c r="A24" s="32"/>
       <c r="B24" s="23" t="s">
         <v>58</v>
@@ -2742,7 +3045,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="33"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" ht="12.75">
       <c r="A25" s="32"/>
       <c r="B25" s="37" t="s">
         <v>75</v>
@@ -2759,7 +3062,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="33"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" ht="12.75">
       <c r="A26" s="32"/>
       <c r="B26" s="38" t="s">
         <v>76</v>
@@ -2776,7 +3079,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="33"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" ht="12.75">
       <c r="A27" s="32"/>
       <c r="B27" s="23" t="s">
         <v>77</v>
@@ -2795,7 +3098,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="33"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" ht="12.75">
       <c r="A28" s="32"/>
       <c r="B28" s="23" t="s">
         <v>79</v>
@@ -2812,7 +3115,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="33"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" ht="12.75">
       <c r="A29" s="39"/>
       <c r="B29" s="40" t="s">
         <v>80</v>
@@ -2829,7 +3132,7 @@
       <c r="L29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" ht="15">
       <c r="B30" s="43"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2843,7 +3146,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" ht="15">
       <c r="B31" s="44" t="s">
         <v>81</v>
       </c>
@@ -2861,7 +3164,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
@@ -2897,18 +3200,18 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:13" ht="15">
       <c r="B33" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="22">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D33" s="22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="22">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F33" s="49" t="s">
         <v>91</v>
@@ -2933,7 +3236,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="2:13" ht="12.75">
       <c r="B34" s="23" t="s">
         <v>58</v>
       </c>
@@ -2949,15 +3252,15 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="2:13" ht="39.75">
       <c r="B35" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="25" t="s">
-        <v>98</v>
+      <c r="F35" s="130" t="s">
+        <v>263</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2967,7 +3270,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="2:13" ht="12.75">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2981,28 +3284,28 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="2:13" ht="15">
       <c r="B37" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="51"/>
       <c r="K37" s="51"/>
     </row>
-    <row r="38">
+    <row r="38" spans="2:13">
       <c r="B38" s="52" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="E38" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="F38" s="52" t="s">
         <v>102</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>103</v>
       </c>
       <c r="G38" s="53" t="s">
         <v>65</v>
@@ -3011,278 +3314,278 @@
         <v>66</v>
       </c>
       <c r="I38" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="J38" s="55" t="s">
+      <c r="K38" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="52" t="s">
+      <c r="L38" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="L38" s="52" t="s">
+      <c r="M38" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="M38" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="2:13" ht="15">
       <c r="B39" s="56" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="57">
+        <v>1</v>
+      </c>
+      <c r="H39" s="57">
+        <v>4</v>
+      </c>
+      <c r="I39" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="J39" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="H39" s="57">
-        <v>4.0</v>
-      </c>
-      <c r="I39" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="J39" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="K39" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="L39" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="M39" s="58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
+    </row>
+    <row r="40" spans="2:13" ht="16.5" customHeight="1">
       <c r="B40" s="23" t="s">
         <v>58</v>
       </c>
       <c r="G40" s="51"/>
       <c r="K40" s="51"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:13" ht="27">
       <c r="B41" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="G41" s="130" t="s">
+        <v>264</v>
       </c>
       <c r="K41" s="51"/>
     </row>
-    <row r="42" ht="16.5" customHeight="1">
+    <row r="42" spans="2:13" ht="16.5" customHeight="1">
       <c r="B42" s="60"/>
       <c r="G42" s="51"/>
       <c r="K42" s="51"/>
     </row>
-    <row r="43">
+    <row r="43" spans="2:13" ht="12.75">
       <c r="B43" s="61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G43" s="51"/>
       <c r="K43" s="51"/>
     </row>
-    <row r="44" ht="16.5" customHeight="1">
+    <row r="44" spans="2:13" ht="16.5" customHeight="1">
       <c r="B44" s="60"/>
       <c r="G44" s="51"/>
       <c r="K44" s="51"/>
     </row>
-    <row r="45" ht="16.5" customHeight="1">
+    <row r="45" spans="2:13" ht="16.5" customHeight="1">
       <c r="B45" s="62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="G45" s="62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="63"/>
       <c r="K45" s="62"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:13" ht="12.75">
       <c r="B46" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="12.75">
+      <c r="B47" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="65" t="s">
+      <c r="G47" s="65" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="64" t="s">
+    <row r="48" spans="2:13" ht="12.75">
+      <c r="B48" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G48" s="65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="64" t="s">
+    <row r="49" spans="2:8" ht="13.5" customHeight="1">
+      <c r="G49" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="G49" s="65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="2:8" ht="12.75">
       <c r="B50" s="65"/>
       <c r="G50" s="65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="12.75">
       <c r="B51" s="65"/>
       <c r="G51" s="65"/>
     </row>
-    <row r="52">
+    <row r="52" spans="2:8" ht="12.75">
       <c r="G52" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="12.75">
+      <c r="G53" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="65" t="s">
+    </row>
+    <row r="54" spans="2:8" ht="12.75">
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="2:8" ht="12.75">
+      <c r="G55" s="65" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="G53" s="65" t="s">
+      <c r="H55" s="65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54">
-      <c r="G54" s="65"/>
-    </row>
-    <row r="55">
-      <c r="G55" s="65" t="s">
+    <row r="56" spans="2:8" ht="12.75">
+      <c r="G56" s="65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="12.75">
+      <c r="G57" s="65"/>
+    </row>
+    <row r="58" spans="2:8" ht="12.75">
+      <c r="G58" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="H55" s="65" t="s">
+    </row>
+    <row r="59" spans="2:8" ht="12.75">
+      <c r="G59" s="65" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56">
-      <c r="G56" s="65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="G57" s="65"/>
-    </row>
-    <row r="58">
-      <c r="G58" s="65" t="s">
+    <row r="60" spans="2:8" ht="12.75">
+      <c r="G60" s="65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59">
-      <c r="G59" s="65" t="s">
+    <row r="61" spans="2:8" ht="12.75">
+      <c r="B61" s="62" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="G60" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="62" t="s">
-        <v>135</v>
       </c>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="G61" s="65"/>
     </row>
-    <row r="62">
+    <row r="62" spans="2:8" ht="12.75">
       <c r="B62" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="G62" s="65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="12.75">
+      <c r="B63" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C63" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="65" t="s">
+    </row>
+    <row r="64" spans="2:8" ht="12.75">
+      <c r="B64" s="65" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="65" t="s">
+      <c r="C64" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="65" t="s">
+      <c r="G64" s="65" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="65" t="s">
+    <row r="65" spans="2:21" ht="12.75">
+      <c r="B65" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C65" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="G64" s="65" t="s">
+      <c r="G65" s="65"/>
+    </row>
+    <row r="66" spans="2:21" ht="12.75">
+      <c r="G66" s="65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" s="65" t="s">
+    <row r="67" spans="2:21" ht="12.75">
+      <c r="G67" s="65"/>
+    </row>
+    <row r="68" spans="2:21" ht="12.75">
+      <c r="G68" s="65"/>
+    </row>
+    <row r="69" spans="2:21" ht="12.75">
+      <c r="G69" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="65" t="s">
+    </row>
+    <row r="70" spans="2:21" ht="12.75">
+      <c r="G70" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="G65" s="65"/>
-    </row>
-    <row r="66">
-      <c r="G66" s="65" t="s">
+    </row>
+    <row r="71" spans="2:21" ht="12.75">
+      <c r="G71" s="66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67">
-      <c r="G67" s="65"/>
-    </row>
-    <row r="68">
-      <c r="G68" s="65"/>
-    </row>
-    <row r="69">
-      <c r="G69" s="65" t="s">
+    <row r="72" spans="2:21" ht="12.75">
+      <c r="G72" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70">
-      <c r="G70" s="66" t="s">
+    <row r="74" spans="2:21" ht="12.75">
+      <c r="B74" s="62" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="G71" s="66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="G72" s="65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="62" t="s">
-        <v>151</v>
       </c>
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
@@ -3297,70 +3600,73 @@
       <c r="M74" s="63"/>
       <c r="N74" s="63"/>
     </row>
-    <row r="75">
+    <row r="75" spans="2:21" ht="12.75">
       <c r="G75" s="65"/>
     </row>
-    <row r="76">
-      <c r="E76" s="68" t="s">
+    <row r="76" spans="2:21" ht="12.75">
+      <c r="E76" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127"/>
+      <c r="H76" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="I76" s="127"/>
+      <c r="K76" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="M76" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="H76" s="69" t="s">
+      <c r="N76" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="K76" s="51" t="s">
+    </row>
+    <row r="77" spans="2:21" ht="12.75">
+      <c r="B77" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="M76" s="70" t="s">
+      <c r="C77" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="N76" s="51" t="s">
+      <c r="D77" s="72" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="51" t="s">
+      <c r="E77" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="F77" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="72" t="s">
+      <c r="G77" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="71" t="s">
+      <c r="H77" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="71" t="s">
+      <c r="I77" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="G77" s="71" t="s">
+      <c r="K77" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H77" s="71" t="s">
+      <c r="M77" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="N77" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="I77" s="71" t="s">
+      <c r="O77" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="K77" s="65" t="s">
+    </row>
+    <row r="78" spans="2:21" ht="13.5">
+      <c r="B78" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="M77" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="N77" s="73" t="s">
+      <c r="C78" s="74" t="s">
         <v>166</v>
-      </c>
-      <c r="O77" s="65" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="74" t="s">
-        <v>169</v>
       </c>
       <c r="E78" s="75"/>
       <c r="F78" s="76"/>
@@ -3368,16 +3674,16 @@
       <c r="H78" s="76"/>
       <c r="I78" s="77"/>
       <c r="K78" s="65" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="M78" s="65" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N78" s="65" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O78" s="65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P78" s="76"/>
       <c r="Q78" s="76"/>
@@ -3386,26 +3692,26 @@
       <c r="T78" s="76"/>
       <c r="U78" s="76"/>
     </row>
-    <row r="79">
+    <row r="79" spans="2:21" ht="12.75">
       <c r="B79" s="75" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C79" s="74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E79" s="75"/>
       <c r="F79" s="76"/>
       <c r="G79" s="76"/>
       <c r="H79" s="76"/>
       <c r="I79" s="77"/>
-      <c r="K79" s="78" t="s">
-        <v>175</v>
+      <c r="K79" s="131" t="s">
+        <v>171</v>
       </c>
       <c r="M79" s="78" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N79" s="78" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O79" s="76"/>
       <c r="P79" s="76"/>
@@ -3415,13 +3721,13 @@
       <c r="T79" s="76"/>
       <c r="U79" s="76"/>
     </row>
-    <row r="80">
+    <row r="80" spans="2:21" ht="12.75">
       <c r="B80" s="79">
         <f>25*426*42</f>
         <v>447300</v>
       </c>
       <c r="C80" s="74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E80" s="75"/>
       <c r="F80" s="76"/>
@@ -3429,13 +3735,13 @@
       <c r="H80" s="76"/>
       <c r="I80" s="77"/>
       <c r="K80" s="78" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M80" s="78" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N80" s="65" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O80" s="76"/>
       <c r="P80" s="76"/>
@@ -3445,10 +3751,10 @@
       <c r="T80" s="76"/>
       <c r="U80" s="76"/>
     </row>
-    <row r="81">
+    <row r="81" spans="2:21" ht="12.75">
       <c r="B81" s="80"/>
       <c r="C81" s="81" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D81" s="82"/>
       <c r="E81" s="83"/>
@@ -3457,13 +3763,13 @@
       <c r="H81" s="84"/>
       <c r="I81" s="85"/>
       <c r="K81" s="78" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M81" s="78" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N81" s="65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O81" s="76"/>
       <c r="P81" s="76"/>
@@ -3473,184 +3779,188 @@
       <c r="T81" s="76"/>
       <c r="U81" s="76"/>
     </row>
-    <row r="82">
+    <row r="82" spans="2:21" ht="12.75">
       <c r="B82" s="80"/>
       <c r="F82" s="65"/>
       <c r="K82" s="86" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L82" s="76"/>
       <c r="M82" s="76"/>
       <c r="N82" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="O82" s="65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" ht="12.75">
+      <c r="B83" s="80"/>
+      <c r="E83" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
+      <c r="K83" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="N83" s="78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" ht="12.75">
+      <c r="B84" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="O82" s="65" t="s">
+      <c r="C84" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" s="71" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="80"/>
-      <c r="E83" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="K83" s="87" t="s">
+      <c r="F84" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="N83" s="78" t="s">
+      <c r="G84" s="71" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="51" t="s">
+      <c r="H84" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="D84" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" s="71" t="s">
+      <c r="I84" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="F84" s="71" t="s">
+      <c r="K84" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="G84" s="71" t="s">
+      <c r="N84" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="H84" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="I84" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="K84" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="N84" s="78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85">
+    </row>
+    <row r="85" spans="2:21" ht="12.75">
       <c r="B85" s="65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C85" s="74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E85" s="76"/>
       <c r="F85" s="89">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="76"/>
       <c r="H85" s="76"/>
       <c r="I85" s="77"/>
       <c r="K85" s="65"/>
       <c r="N85" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" ht="12.75">
       <c r="B86" s="75" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C86" s="74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E86" s="76"/>
       <c r="F86" s="89">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="76"/>
       <c r="H86" s="76"/>
       <c r="I86" s="77"/>
       <c r="N86" s="90"/>
     </row>
-    <row r="87">
+    <row r="87" spans="2:21" ht="12.75">
       <c r="B87" s="79">
         <f>25*426*42</f>
         <v>447300</v>
       </c>
       <c r="C87" s="74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E87" s="76"/>
       <c r="F87" s="89">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G87" s="76"/>
       <c r="H87" s="76"/>
       <c r="I87" s="77"/>
       <c r="N87" s="90"/>
     </row>
-    <row r="88">
+    <row r="88" spans="2:21" ht="12.75">
       <c r="B88" s="80"/>
       <c r="C88" s="81" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D88" s="82"/>
       <c r="E88" s="84"/>
       <c r="F88" s="91">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G88" s="84"/>
       <c r="H88" s="84"/>
       <c r="I88" s="85"/>
       <c r="N88" s="90"/>
     </row>
-    <row r="89">
+    <row r="89" spans="2:21" ht="12.75">
       <c r="B89" s="80"/>
       <c r="F89" s="65"/>
       <c r="N89" s="90"/>
     </row>
-    <row r="90">
+    <row r="90" spans="2:21" ht="12.75">
       <c r="B90" s="80"/>
       <c r="F90" s="65"/>
       <c r="N90" s="90"/>
     </row>
-    <row r="91">
+    <row r="91" spans="2:21" ht="12.75">
       <c r="B91" s="51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C91" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E91" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="F91" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="D91" s="72" t="s">
+      <c r="G91" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E91" s="71" t="s">
+      <c r="H91" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F91" s="71" t="s">
+      <c r="I91" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="H91" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="I91" s="71" t="s">
-        <v>164</v>
-      </c>
       <c r="J91" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="K91" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="L91" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="M91" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="N91" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="K91" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="L91" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="M91" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="N91" s="88" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92">
+    </row>
+    <row r="92" spans="2:21" ht="12.75">
       <c r="B92" s="51"/>
       <c r="C92" s="92"/>
       <c r="D92" s="93"/>
@@ -3665,7 +3975,7 @@
       <c r="M92" s="82"/>
       <c r="N92" s="95"/>
     </row>
-    <row r="93">
+    <row r="93" spans="2:21" ht="12.75">
       <c r="B93" s="51"/>
       <c r="C93" s="96"/>
       <c r="D93" s="97"/>
@@ -3678,7 +3988,7 @@
       <c r="K93" s="96"/>
       <c r="N93" s="90"/>
     </row>
-    <row r="94">
+    <row r="94" spans="2:21" ht="12.75">
       <c r="B94" s="51"/>
       <c r="C94" s="96"/>
       <c r="D94" s="97"/>
@@ -3691,11 +4001,11 @@
       <c r="K94" s="96"/>
       <c r="N94" s="90"/>
     </row>
-    <row r="95">
+    <row r="95" spans="2:21" ht="12.75">
       <c r="B95" s="51"/>
       <c r="C95" s="96"/>
       <c r="D95" s="68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E95" s="96"/>
       <c r="F95" s="96"/>
@@ -3706,30 +4016,30 @@
       <c r="K95" s="96"/>
       <c r="N95" s="90"/>
     </row>
-    <row r="96">
+    <row r="96" spans="2:21" ht="12.75">
       <c r="B96" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F96" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="G96" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="71" t="s">
+      <c r="H96" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="D96" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="E96" s="71" t="s">
+      <c r="I96" s="71" t="s">
         <v>200</v>
-      </c>
-      <c r="F96" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="G96" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="H96" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="I96" s="71" t="s">
-        <v>204</v>
       </c>
       <c r="J96" s="88" t="s">
         <v>73</v>
@@ -3739,16 +4049,16 @@
       </c>
       <c r="N96" s="90"/>
     </row>
-    <row r="97">
+    <row r="97" spans="2:14" ht="12.75">
       <c r="B97" s="65" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C97" s="81" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D97" s="98"/>
       <c r="E97" s="99" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F97" s="100"/>
       <c r="G97" s="101"/>
@@ -3758,13 +4068,13 @@
       <c r="K97" s="102"/>
       <c r="N97" s="90"/>
     </row>
-    <row r="98">
+    <row r="98" spans="2:14" ht="12.75">
       <c r="B98" s="75" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N98" s="90"/>
     </row>
-    <row r="99">
+    <row r="99" spans="2:14" ht="12.75">
       <c r="B99" s="103">
         <f>25*2*24</f>
         <v>1200</v>
@@ -3779,11 +4089,11 @@
       <c r="J99" s="96"/>
       <c r="N99" s="90"/>
     </row>
-    <row r="100">
+    <row r="100" spans="2:14" ht="12.75">
       <c r="B100" s="51"/>
       <c r="C100" s="65"/>
       <c r="D100" s="69" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E100" s="96"/>
       <c r="F100" s="96"/>
@@ -3793,42 +4103,42 @@
       <c r="J100" s="96"/>
       <c r="N100" s="90"/>
     </row>
-    <row r="101">
+    <row r="101" spans="2:14" ht="12.75">
       <c r="B101" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E101" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H101" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="I101" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="C101" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D101" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" s="88" t="s">
+      <c r="J101" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="F101" s="71" t="s">
+      <c r="K101" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="G101" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="H101" s="88" t="s">
+      <c r="N101" s="90"/>
+    </row>
+    <row r="102" spans="2:14" ht="12.75">
+      <c r="B102" s="65" t="s">
         <v>210</v>
-      </c>
-      <c r="I101" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="J101" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="K101" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="N101" s="90"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="65" t="s">
-        <v>214</v>
       </c>
       <c r="C102" s="98"/>
       <c r="D102" s="98"/>
@@ -3840,12 +4150,12 @@
       <c r="J102" s="102"/>
       <c r="N102" s="90"/>
     </row>
-    <row r="104">
+    <row r="104" spans="2:14" ht="12.75">
       <c r="B104" s="80"/>
       <c r="C104" s="65"/>
       <c r="D104" s="65"/>
       <c r="E104" s="69" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G104" s="104"/>
       <c r="H104" s="104"/>
@@ -3854,56 +4164,56 @@
       <c r="K104" s="104"/>
       <c r="N104" s="90"/>
     </row>
-    <row r="105">
+    <row r="105" spans="2:14" ht="12.75">
       <c r="B105" s="51" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C105" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E105" s="106" t="s">
         <v>100</v>
-      </c>
-      <c r="D105" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="106" t="s">
-        <v>101</v>
       </c>
       <c r="F105" s="105" t="s">
         <v>66</v>
       </c>
       <c r="G105" s="105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H105" s="105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J105" s="107"/>
       <c r="N105" s="90"/>
     </row>
-    <row r="106">
+    <row r="106" spans="2:14" ht="12.75">
       <c r="B106" s="65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C106" s="99" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D106" s="99" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E106" s="72" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F106" s="99" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G106" s="99" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H106" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N106" s="90"/>
     </row>
-    <row r="107">
+    <row r="107" spans="2:14" ht="19.5">
       <c r="C107" s="109"/>
       <c r="D107" s="110"/>
       <c r="E107" s="110"/>
@@ -3912,7 +4222,7 @@
       <c r="H107" s="112"/>
       <c r="N107" s="90"/>
     </row>
-    <row r="108">
+    <row r="108" spans="2:14" ht="19.5">
       <c r="C108" s="113"/>
       <c r="D108" s="113"/>
       <c r="E108" s="113"/>
@@ -3920,7 +4230,7 @@
       <c r="G108" s="113"/>
       <c r="N108" s="90"/>
     </row>
-    <row r="109">
+    <row r="109" spans="2:14" ht="18">
       <c r="B109" s="114"/>
       <c r="C109" s="114"/>
       <c r="D109" s="114"/>
@@ -3928,7 +4238,7 @@
       <c r="F109" s="114"/>
       <c r="N109" s="90"/>
     </row>
-    <row r="110">
+    <row r="110" spans="2:14" ht="18">
       <c r="B110" s="114"/>
       <c r="C110" s="114"/>
       <c r="D110" s="114"/>
@@ -3936,7 +4246,7 @@
       <c r="F110" s="114"/>
       <c r="N110" s="90"/>
     </row>
-    <row r="111">
+    <row r="111" spans="2:14" ht="18">
       <c r="B111" s="114"/>
       <c r="C111" s="114"/>
       <c r="D111" s="114"/>
@@ -3944,7 +4254,7 @@
       <c r="F111" s="114"/>
       <c r="N111" s="90"/>
     </row>
-    <row r="112">
+    <row r="112" spans="2:14" ht="18">
       <c r="B112" s="114"/>
       <c r="C112" s="114"/>
       <c r="D112" s="114"/>
@@ -3952,7 +4262,7 @@
       <c r="F112" s="114"/>
       <c r="N112" s="90"/>
     </row>
-    <row r="113">
+    <row r="113" spans="2:15" ht="18">
       <c r="B113" s="114"/>
       <c r="C113" s="114"/>
       <c r="D113" s="114"/>
@@ -3960,27 +4270,35 @@
       <c r="F113" s="114"/>
       <c r="N113" s="90"/>
     </row>
-    <row r="114">
-      <c r="B114" s="114" t="s">
-        <v>218</v>
-      </c>
+    <row r="114" spans="2:15" ht="18">
+      <c r="B114" s="129" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
       <c r="N114" s="90"/>
     </row>
-    <row r="115">
-      <c r="B115" s="114" t="s">
-        <v>219</v>
-      </c>
+    <row r="115" spans="2:15" ht="18">
+      <c r="B115" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="127"/>
+      <c r="D115" s="127"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="127"/>
       <c r="N115" s="90"/>
     </row>
-    <row r="116">
+    <row r="116" spans="2:15" ht="12.75">
       <c r="N116" s="90"/>
     </row>
-    <row r="117">
+    <row r="117" spans="2:15" ht="12.75">
       <c r="N117" s="90"/>
     </row>
-    <row r="118">
+    <row r="118" spans="2:15" ht="12.75">
       <c r="B118" s="115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C118" s="116"/>
       <c r="D118" s="116"/>
@@ -3996,11 +4314,11 @@
       <c r="N118" s="117"/>
       <c r="O118" s="116"/>
     </row>
-    <row r="119">
+    <row r="119" spans="2:15" ht="12.75">
       <c r="B119" s="65"/>
       <c r="N119" s="90"/>
     </row>
-    <row r="120">
+    <row r="120" spans="2:15" ht="12.75">
       <c r="B120" s="118" t="s">
         <v>1</v>
       </c>
@@ -4017,7 +4335,7 @@
       <c r="M120" s="2"/>
       <c r="N120" s="90"/>
     </row>
-    <row r="121">
+    <row r="121" spans="2:15" ht="12.75">
       <c r="B121" s="119" t="s">
         <v>2</v>
       </c>
@@ -4054,7 +4372,7 @@
       <c r="M121" s="122"/>
       <c r="N121" s="90"/>
     </row>
-    <row r="122">
+    <row r="122" spans="2:15" ht="12.75">
       <c r="B122" s="123" t="s">
         <v>13</v>
       </c>
@@ -4062,7 +4380,7 @@
         <v>14</v>
       </c>
       <c r="D122" s="123">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E122" s="123" t="s">
         <v>15</v>
@@ -4091,7 +4409,7 @@
       <c r="M122" s="122"/>
       <c r="N122" s="90"/>
     </row>
-    <row r="123">
+    <row r="123" spans="2:15" ht="12.75">
       <c r="B123" s="119" t="s">
         <v>17</v>
       </c>
@@ -4128,7 +4446,7 @@
       <c r="M123" s="122"/>
       <c r="N123" s="90"/>
     </row>
-    <row r="124">
+    <row r="124" spans="2:15" ht="12.75">
       <c r="B124" s="123" t="s">
         <v>15</v>
       </c>
@@ -4165,7 +4483,7 @@
       <c r="M124" s="124"/>
       <c r="N124" s="90"/>
     </row>
-    <row r="125">
+    <row r="125" spans="2:15" ht="12.75">
       <c r="B125" s="119" t="s">
         <v>31</v>
       </c>
@@ -4204,7 +4522,7 @@
       </c>
       <c r="N125" s="90"/>
     </row>
-    <row r="126">
+    <row r="126" spans="2:15" ht="12.75">
       <c r="B126" s="123" t="s">
         <v>16</v>
       </c>
@@ -4243,176 +4561,176 @@
       </c>
       <c r="N126" s="90"/>
     </row>
-    <row r="127">
+    <row r="127" spans="2:15" ht="12.75">
       <c r="N127" s="90"/>
     </row>
-    <row r="128">
+    <row r="128" spans="2:15" ht="12.75">
       <c r="N128" s="90"/>
     </row>
-    <row r="129">
+    <row r="129" spans="2:14" ht="12.75">
       <c r="B129" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I129" s="51"/>
       <c r="N129" s="90"/>
     </row>
-    <row r="130">
+    <row r="130" spans="2:14" ht="12.75">
       <c r="B130" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="I130" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="M130" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="I130" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="M130" s="65" t="s">
-        <v>126</v>
-      </c>
       <c r="N130" s="90"/>
     </row>
-    <row r="131">
+    <row r="131" spans="2:14" ht="12.75">
       <c r="B131" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="I131" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="N131" s="90"/>
+    </row>
+    <row r="132" spans="2:14" ht="12.75">
+      <c r="B132" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="D132" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="F132" s="65" t="s">
         <v>221</v>
-      </c>
-      <c r="I131" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="N131" s="90"/>
-    </row>
-    <row r="132">
-      <c r="B132" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="D132" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="F132" s="65" t="s">
-        <v>225</v>
       </c>
       <c r="I132" s="65"/>
       <c r="N132" s="90"/>
     </row>
-    <row r="133">
+    <row r="133" spans="2:14" ht="12.75">
       <c r="B133" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D133" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="F133" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="N133" s="90"/>
+    </row>
+    <row r="134" spans="2:14" ht="12.75">
+      <c r="B134" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="D133" s="65" t="s">
+      <c r="F134" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="F133" s="65" t="s">
+      <c r="N134" s="90"/>
+    </row>
+    <row r="135" spans="2:14" ht="12.75">
+      <c r="B135" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="N133" s="90"/>
-    </row>
-    <row r="134">
-      <c r="B134" s="65" t="s">
+      <c r="D135" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="D134" s="65" t="s">
+      <c r="F135" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="F134" s="65" t="s">
+      <c r="N135" s="90"/>
+    </row>
+    <row r="136" spans="2:14" ht="12.75">
+      <c r="B136" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="N134" s="90"/>
-    </row>
-    <row r="135">
-      <c r="B135" s="65" t="s">
+      <c r="F136" s="65" t="s">
         <v>232</v>
       </c>
-      <c r="D135" s="65" t="s">
+      <c r="N136" s="90"/>
+    </row>
+    <row r="137" spans="2:14" ht="12.75">
+      <c r="B137" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="F135" s="65" t="s">
+      <c r="F137" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="N135" s="90"/>
-    </row>
-    <row r="136">
-      <c r="B136" s="65" t="s">
+      <c r="N137" s="90"/>
+    </row>
+    <row r="138" spans="2:14" ht="12.75">
+      <c r="B138" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="F136" s="65" t="s">
+      <c r="F138" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="N136" s="90"/>
-    </row>
-    <row r="137">
-      <c r="B137" s="65" t="s">
+      <c r="N138" s="90"/>
+    </row>
+    <row r="139" spans="2:14" ht="12.75">
+      <c r="B139" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="F137" s="65" t="s">
+      <c r="F139" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="N137" s="90"/>
-    </row>
-    <row r="138">
-      <c r="B138" s="65" t="s">
+      <c r="N139" s="90"/>
+    </row>
+    <row r="140" spans="2:14" ht="12.75">
+      <c r="B140" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="F138" s="65" t="s">
+      <c r="F140" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="N138" s="90"/>
-    </row>
-    <row r="139">
-      <c r="B139" s="65" t="s">
+      <c r="N140" s="90"/>
+    </row>
+    <row r="141" spans="2:14" ht="12.75">
+      <c r="B141" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="F139" s="65" t="s">
+      <c r="F141" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="N139" s="90"/>
-    </row>
-    <row r="140">
-      <c r="B140" s="65" t="s">
+      <c r="N141" s="90"/>
+    </row>
+    <row r="142" spans="2:14" ht="12.75">
+      <c r="B142" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="F140" s="65" t="s">
+      <c r="N142" s="90"/>
+    </row>
+    <row r="143" spans="2:14" ht="12.75">
+      <c r="B143" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="N140" s="90"/>
-    </row>
-    <row r="141">
-      <c r="B141" s="65" t="s">
+      <c r="F143" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="F141" s="65" t="s">
+      <c r="N143" s="90"/>
+    </row>
+    <row r="144" spans="2:14" ht="12.75">
+      <c r="N144" s="90"/>
+    </row>
+    <row r="145" spans="2:14" ht="12.75">
+      <c r="N145" s="90"/>
+    </row>
+    <row r="146" spans="2:14" ht="12.75">
+      <c r="B146" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="N141" s="90"/>
-    </row>
-    <row r="142">
-      <c r="B142" s="65" t="s">
+      <c r="C146" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="N142" s="90"/>
-    </row>
-    <row r="143">
-      <c r="B143" s="65" t="s">
+      <c r="N146" s="90"/>
+    </row>
+    <row r="147" spans="2:14" ht="15">
+      <c r="B147" s="125" t="s">
         <v>248</v>
-      </c>
-      <c r="F143" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="N143" s="90"/>
-    </row>
-    <row r="144">
-      <c r="N144" s="90"/>
-    </row>
-    <row r="145">
-      <c r="N145" s="90"/>
-    </row>
-    <row r="146">
-      <c r="B146" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="C146" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="N146" s="90"/>
-    </row>
-    <row r="147">
-      <c r="B147" s="125" t="s">
-        <v>252</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>82</v>
@@ -4428,7 +4746,7 @@
       <c r="L147" s="15"/>
       <c r="N147" s="90"/>
     </row>
-    <row r="148">
+    <row r="148" spans="2:14">
       <c r="B148" s="16" t="s">
         <v>47</v>
       </c>
@@ -4464,18 +4782,18 @@
       </c>
       <c r="N148" s="90"/>
     </row>
-    <row r="149">
+    <row r="149" spans="2:14" ht="15">
       <c r="B149" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C149" s="22">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D149" s="22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="22">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F149" s="49" t="s">
         <v>91</v>
@@ -4500,37 +4818,37 @@
       </c>
       <c r="N149" s="90"/>
     </row>
-    <row r="150">
+    <row r="150" spans="2:14" ht="12.75">
       <c r="B150" s="65" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N150" s="90"/>
     </row>
-    <row r="151">
+    <row r="151" spans="2:14" ht="12.75">
       <c r="B151" s="65" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N151" s="90"/>
     </row>
-    <row r="152">
+    <row r="152" spans="2:14" ht="12.75">
       <c r="B152" s="65" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N152" s="90"/>
     </row>
-    <row r="153">
+    <row r="153" spans="2:14" ht="12.75">
       <c r="B153" s="65" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N153" s="90"/>
     </row>
-    <row r="154">
+    <row r="154" spans="2:14" ht="12.75">
       <c r="N154" s="90"/>
     </row>
-    <row r="155">
+    <row r="155" spans="2:14" ht="12.75">
       <c r="N155" s="90"/>
     </row>
-    <row r="156">
+    <row r="156" spans="2:14" ht="12.75">
       <c r="B156" s="14" t="s">
         <v>46</v>
       </c>
@@ -4544,7 +4862,7 @@
       <c r="J156" s="15"/>
       <c r="N156" s="90"/>
     </row>
-    <row r="157">
+    <row r="157" spans="2:14" ht="15">
       <c r="B157" s="16" t="s">
         <v>47</v>
       </c>
@@ -4574,9 +4892,9 @@
       </c>
       <c r="N157" s="90"/>
     </row>
-    <row r="158">
+    <row r="158" spans="2:14" ht="15">
       <c r="B158" s="21">
-        <v>202206.0</v>
+        <v>202206</v>
       </c>
       <c r="C158" s="22" t="s">
         <v>56</v>
@@ -4588,2763 +4906,2763 @@
         <v>57</v>
       </c>
       <c r="F158" s="22">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G158" s="22">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="H158" s="22">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I158" s="22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J158" s="22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N158" s="90"/>
     </row>
-    <row r="159">
+    <row r="159" spans="2:14" ht="12.75">
       <c r="N159" s="90"/>
     </row>
-    <row r="160">
+    <row r="160" spans="2:14" ht="12.75">
       <c r="C160" s="65"/>
       <c r="N160" s="90"/>
     </row>
-    <row r="161">
+    <row r="161" spans="2:14" ht="12.75">
       <c r="B161" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="N161" s="90"/>
+    </row>
+    <row r="162" spans="2:14" ht="12.75">
+      <c r="B162" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="N162" s="90"/>
+    </row>
+    <row r="163" spans="2:14" ht="12.75">
+      <c r="B163" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="N161" s="90"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="N162" s="90"/>
-    </row>
-    <row r="163">
-      <c r="B163" s="65" t="s">
-        <v>134</v>
-      </c>
       <c r="N163" s="90"/>
     </row>
-    <row r="164">
+    <row r="164" spans="2:14" ht="12.75">
       <c r="B164" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="N164" s="90"/>
+    </row>
+    <row r="165" spans="2:14" ht="12.75">
+      <c r="B165" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="N165" s="90"/>
+    </row>
+    <row r="166" spans="2:14" ht="12.75">
+      <c r="B166" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="N166" s="90"/>
+    </row>
+    <row r="167" spans="2:14" ht="12.75">
+      <c r="B167" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E167" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="N164" s="90"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="65" t="s">
+      <c r="N167" s="90"/>
+    </row>
+    <row r="168" spans="2:14" ht="12.75">
+      <c r="B168" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="N165" s="90"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="65" t="s">
+      <c r="E168" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="N166" s="90"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="65" t="s">
+      <c r="N168" s="90"/>
+    </row>
+    <row r="169" spans="2:14" ht="12.75">
+      <c r="B169" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="E167" s="65" t="s">
+      <c r="E169" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="N167" s="90"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="E168" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="N168" s="90"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="E169" s="65" t="s">
-        <v>265</v>
-      </c>
       <c r="N169" s="90"/>
     </row>
-    <row r="170">
+    <row r="170" spans="2:14" ht="12.75">
       <c r="N170" s="90"/>
     </row>
-    <row r="171">
+    <row r="171" spans="2:14" ht="12.75">
       <c r="N171" s="90"/>
     </row>
-    <row r="172">
+    <row r="172" spans="2:14" ht="12.75">
       <c r="N172" s="90"/>
     </row>
-    <row r="173">
+    <row r="173" spans="2:14" ht="12.75">
       <c r="N173" s="90"/>
     </row>
-    <row r="174">
+    <row r="174" spans="2:14" ht="12.75">
       <c r="N174" s="90"/>
     </row>
-    <row r="175">
+    <row r="175" spans="2:14" ht="12.75">
       <c r="N175" s="90"/>
     </row>
-    <row r="176">
+    <row r="176" spans="2:14" ht="12.75">
       <c r="N176" s="90"/>
     </row>
-    <row r="177">
+    <row r="177" spans="14:14" ht="12.75">
       <c r="N177" s="90"/>
     </row>
-    <row r="178">
+    <row r="178" spans="14:14" ht="12.75">
       <c r="N178" s="90"/>
     </row>
-    <row r="179">
+    <row r="179" spans="14:14" ht="12.75">
       <c r="N179" s="90"/>
     </row>
-    <row r="180">
+    <row r="180" spans="14:14" ht="12.75">
       <c r="N180" s="90"/>
     </row>
-    <row r="181">
+    <row r="181" spans="14:14" ht="12.75">
       <c r="N181" s="90"/>
     </row>
-    <row r="182">
+    <row r="182" spans="14:14" ht="12.75">
       <c r="N182" s="90"/>
     </row>
-    <row r="183">
+    <row r="183" spans="14:14" ht="12.75">
       <c r="N183" s="90"/>
     </row>
-    <row r="184">
+    <row r="184" spans="14:14" ht="12.75">
       <c r="N184" s="90"/>
     </row>
-    <row r="185">
+    <row r="185" spans="14:14" ht="12.75">
       <c r="N185" s="90"/>
     </row>
-    <row r="186">
+    <row r="186" spans="14:14" ht="12.75">
       <c r="N186" s="90"/>
     </row>
-    <row r="187">
+    <row r="187" spans="14:14" ht="12.75">
       <c r="N187" s="90"/>
     </row>
-    <row r="188">
+    <row r="188" spans="14:14" ht="12.75">
       <c r="N188" s="90"/>
     </row>
-    <row r="189">
+    <row r="189" spans="14:14" ht="12.75">
       <c r="N189" s="90"/>
     </row>
-    <row r="190">
+    <row r="190" spans="14:14" ht="12.75">
       <c r="N190" s="90"/>
     </row>
-    <row r="191">
+    <row r="191" spans="14:14" ht="12.75">
       <c r="N191" s="90"/>
     </row>
-    <row r="192">
+    <row r="192" spans="14:14" ht="12.75">
       <c r="N192" s="90"/>
     </row>
-    <row r="193">
+    <row r="193" spans="14:14" ht="12.75">
       <c r="N193" s="90"/>
     </row>
-    <row r="194">
+    <row r="194" spans="14:14" ht="12.75">
       <c r="N194" s="90"/>
     </row>
-    <row r="195">
+    <row r="195" spans="14:14" ht="12.75">
       <c r="N195" s="90"/>
     </row>
-    <row r="196">
+    <row r="196" spans="14:14" ht="12.75">
       <c r="N196" s="90"/>
     </row>
-    <row r="197">
+    <row r="197" spans="14:14" ht="12.75">
       <c r="N197" s="90"/>
     </row>
-    <row r="198">
+    <row r="198" spans="14:14" ht="12.75">
       <c r="N198" s="90"/>
     </row>
-    <row r="199">
+    <row r="199" spans="14:14" ht="12.75">
       <c r="N199" s="90"/>
     </row>
-    <row r="200">
+    <row r="200" spans="14:14" ht="12.75">
       <c r="N200" s="90"/>
     </row>
-    <row r="201">
+    <row r="201" spans="14:14" ht="12.75">
       <c r="N201" s="90"/>
     </row>
-    <row r="202">
+    <row r="202" spans="14:14" ht="12.75">
       <c r="N202" s="90"/>
     </row>
-    <row r="203">
+    <row r="203" spans="14:14" ht="12.75">
       <c r="N203" s="90"/>
     </row>
-    <row r="204">
+    <row r="204" spans="14:14" ht="12.75">
       <c r="N204" s="90"/>
     </row>
-    <row r="205">
+    <row r="205" spans="14:14" ht="12.75">
       <c r="N205" s="90"/>
     </row>
-    <row r="206">
+    <row r="206" spans="14:14" ht="12.75">
       <c r="N206" s="90"/>
     </row>
-    <row r="207">
+    <row r="207" spans="14:14" ht="12.75">
       <c r="N207" s="90"/>
     </row>
-    <row r="208">
+    <row r="208" spans="14:14" ht="12.75">
       <c r="N208" s="90"/>
     </row>
-    <row r="209">
+    <row r="209" spans="14:14" ht="12.75">
       <c r="N209" s="90"/>
     </row>
-    <row r="210">
+    <row r="210" spans="14:14" ht="12.75">
       <c r="N210" s="90"/>
     </row>
-    <row r="211">
+    <row r="211" spans="14:14" ht="12.75">
       <c r="N211" s="90"/>
     </row>
-    <row r="212">
+    <row r="212" spans="14:14" ht="12.75">
       <c r="N212" s="90"/>
     </row>
-    <row r="213">
+    <row r="213" spans="14:14" ht="12.75">
       <c r="N213" s="90"/>
     </row>
-    <row r="214">
+    <row r="214" spans="14:14" ht="12.75">
       <c r="N214" s="90"/>
     </row>
-    <row r="215">
+    <row r="215" spans="14:14" ht="12.75">
       <c r="N215" s="90"/>
     </row>
-    <row r="216">
+    <row r="216" spans="14:14" ht="12.75">
       <c r="N216" s="90"/>
     </row>
-    <row r="217">
+    <row r="217" spans="14:14" ht="12.75">
       <c r="N217" s="90"/>
     </row>
-    <row r="218">
+    <row r="218" spans="14:14" ht="12.75">
       <c r="N218" s="90"/>
     </row>
-    <row r="219">
+    <row r="219" spans="14:14" ht="12.75">
       <c r="N219" s="90"/>
     </row>
-    <row r="220">
+    <row r="220" spans="14:14" ht="12.75">
       <c r="N220" s="90"/>
     </row>
-    <row r="221">
+    <row r="221" spans="14:14" ht="12.75">
       <c r="N221" s="90"/>
     </row>
-    <row r="222">
+    <row r="222" spans="14:14" ht="12.75">
       <c r="N222" s="90"/>
     </row>
-    <row r="223">
+    <row r="223" spans="14:14" ht="12.75">
       <c r="N223" s="90"/>
     </row>
-    <row r="224">
+    <row r="224" spans="14:14" ht="12.75">
       <c r="N224" s="90"/>
     </row>
-    <row r="225">
+    <row r="225" spans="14:14" ht="12.75">
       <c r="N225" s="90"/>
     </row>
-    <row r="226">
+    <row r="226" spans="14:14" ht="12.75">
       <c r="N226" s="90"/>
     </row>
-    <row r="227">
+    <row r="227" spans="14:14" ht="12.75">
       <c r="N227" s="90"/>
     </row>
-    <row r="228">
+    <row r="228" spans="14:14" ht="12.75">
       <c r="N228" s="90"/>
     </row>
-    <row r="229">
+    <row r="229" spans="14:14" ht="12.75">
       <c r="N229" s="90"/>
     </row>
-    <row r="230">
+    <row r="230" spans="14:14" ht="12.75">
       <c r="N230" s="90"/>
     </row>
-    <row r="231">
+    <row r="231" spans="14:14" ht="12.75">
       <c r="N231" s="90"/>
     </row>
-    <row r="232">
+    <row r="232" spans="14:14" ht="12.75">
       <c r="N232" s="90"/>
     </row>
-    <row r="233">
+    <row r="233" spans="14:14" ht="12.75">
       <c r="N233" s="90"/>
     </row>
-    <row r="234">
+    <row r="234" spans="14:14" ht="12.75">
       <c r="N234" s="90"/>
     </row>
-    <row r="235">
+    <row r="235" spans="14:14" ht="12.75">
       <c r="N235" s="90"/>
     </row>
-    <row r="236">
+    <row r="236" spans="14:14" ht="12.75">
       <c r="N236" s="90"/>
     </row>
-    <row r="237">
+    <row r="237" spans="14:14" ht="12.75">
       <c r="N237" s="90"/>
     </row>
-    <row r="238">
+    <row r="238" spans="14:14" ht="12.75">
       <c r="N238" s="90"/>
     </row>
-    <row r="239">
+    <row r="239" spans="14:14" ht="12.75">
       <c r="N239" s="90"/>
     </row>
-    <row r="240">
+    <row r="240" spans="14:14" ht="12.75">
       <c r="N240" s="90"/>
     </row>
-    <row r="241">
+    <row r="241" spans="14:14" ht="12.75">
       <c r="N241" s="90"/>
     </row>
-    <row r="242">
+    <row r="242" spans="14:14" ht="12.75">
       <c r="N242" s="90"/>
     </row>
-    <row r="243">
+    <row r="243" spans="14:14" ht="12.75">
       <c r="N243" s="90"/>
     </row>
-    <row r="244">
+    <row r="244" spans="14:14" ht="12.75">
       <c r="N244" s="90"/>
     </row>
-    <row r="245">
+    <row r="245" spans="14:14" ht="12.75">
       <c r="N245" s="90"/>
     </row>
-    <row r="246">
+    <row r="246" spans="14:14" ht="12.75">
       <c r="N246" s="90"/>
     </row>
-    <row r="247">
+    <row r="247" spans="14:14" ht="12.75">
       <c r="N247" s="90"/>
     </row>
-    <row r="248">
+    <row r="248" spans="14:14" ht="12.75">
       <c r="N248" s="90"/>
     </row>
-    <row r="249">
+    <row r="249" spans="14:14" ht="12.75">
       <c r="N249" s="90"/>
     </row>
-    <row r="250">
+    <row r="250" spans="14:14" ht="12.75">
       <c r="N250" s="90"/>
     </row>
-    <row r="251">
+    <row r="251" spans="14:14" ht="12.75">
       <c r="N251" s="90"/>
     </row>
-    <row r="252">
+    <row r="252" spans="14:14" ht="12.75">
       <c r="N252" s="90"/>
     </row>
-    <row r="253">
+    <row r="253" spans="14:14" ht="12.75">
       <c r="N253" s="90"/>
     </row>
-    <row r="254">
+    <row r="254" spans="14:14" ht="12.75">
       <c r="N254" s="90"/>
     </row>
-    <row r="255">
+    <row r="255" spans="14:14" ht="12.75">
       <c r="N255" s="90"/>
     </row>
-    <row r="256">
+    <row r="256" spans="14:14" ht="12.75">
       <c r="N256" s="90"/>
     </row>
-    <row r="257">
+    <row r="257" spans="14:14" ht="12.75">
       <c r="N257" s="90"/>
     </row>
-    <row r="258">
+    <row r="258" spans="14:14" ht="12.75">
       <c r="N258" s="90"/>
     </row>
-    <row r="259">
+    <row r="259" spans="14:14" ht="12.75">
       <c r="N259" s="90"/>
     </row>
-    <row r="260">
+    <row r="260" spans="14:14" ht="12.75">
       <c r="N260" s="90"/>
     </row>
-    <row r="261">
+    <row r="261" spans="14:14" ht="12.75">
       <c r="N261" s="90"/>
     </row>
-    <row r="262">
+    <row r="262" spans="14:14" ht="12.75">
       <c r="N262" s="90"/>
     </row>
-    <row r="263">
+    <row r="263" spans="14:14" ht="12.75">
       <c r="N263" s="90"/>
     </row>
-    <row r="264">
+    <row r="264" spans="14:14" ht="12.75">
       <c r="N264" s="90"/>
     </row>
-    <row r="265">
+    <row r="265" spans="14:14" ht="12.75">
       <c r="N265" s="90"/>
     </row>
-    <row r="266">
+    <row r="266" spans="14:14" ht="12.75">
       <c r="N266" s="90"/>
     </row>
-    <row r="267">
+    <row r="267" spans="14:14" ht="12.75">
       <c r="N267" s="90"/>
     </row>
-    <row r="268">
+    <row r="268" spans="14:14" ht="12.75">
       <c r="N268" s="90"/>
     </row>
-    <row r="269">
+    <row r="269" spans="14:14" ht="12.75">
       <c r="N269" s="90"/>
     </row>
-    <row r="270">
+    <row r="270" spans="14:14" ht="12.75">
       <c r="N270" s="90"/>
     </row>
-    <row r="271">
+    <row r="271" spans="14:14" ht="12.75">
       <c r="N271" s="90"/>
     </row>
-    <row r="272">
+    <row r="272" spans="14:14" ht="12.75">
       <c r="N272" s="90"/>
     </row>
-    <row r="273">
+    <row r="273" spans="14:14" ht="12.75">
       <c r="N273" s="90"/>
     </row>
-    <row r="274">
+    <row r="274" spans="14:14" ht="12.75">
       <c r="N274" s="90"/>
     </row>
-    <row r="275">
+    <row r="275" spans="14:14" ht="12.75">
       <c r="N275" s="90"/>
     </row>
-    <row r="276">
+    <row r="276" spans="14:14" ht="12.75">
       <c r="N276" s="90"/>
     </row>
-    <row r="277">
+    <row r="277" spans="14:14" ht="12.75">
       <c r="N277" s="90"/>
     </row>
-    <row r="278">
+    <row r="278" spans="14:14" ht="12.75">
       <c r="N278" s="90"/>
     </row>
-    <row r="279">
+    <row r="279" spans="14:14" ht="12.75">
       <c r="N279" s="90"/>
     </row>
-    <row r="280">
+    <row r="280" spans="14:14" ht="12.75">
       <c r="N280" s="90"/>
     </row>
-    <row r="281">
+    <row r="281" spans="14:14" ht="12.75">
       <c r="N281" s="90"/>
     </row>
-    <row r="282">
+    <row r="282" spans="14:14" ht="12.75">
       <c r="N282" s="90"/>
     </row>
-    <row r="283">
+    <row r="283" spans="14:14" ht="12.75">
       <c r="N283" s="90"/>
     </row>
-    <row r="284">
+    <row r="284" spans="14:14" ht="12.75">
       <c r="N284" s="90"/>
     </row>
-    <row r="285">
+    <row r="285" spans="14:14" ht="12.75">
       <c r="N285" s="90"/>
     </row>
-    <row r="286">
+    <row r="286" spans="14:14" ht="12.75">
       <c r="N286" s="90"/>
     </row>
-    <row r="287">
+    <row r="287" spans="14:14" ht="12.75">
       <c r="N287" s="90"/>
     </row>
-    <row r="288">
+    <row r="288" spans="14:14" ht="12.75">
       <c r="N288" s="90"/>
     </row>
-    <row r="289">
+    <row r="289" spans="14:14" ht="12.75">
       <c r="N289" s="90"/>
     </row>
-    <row r="290">
+    <row r="290" spans="14:14" ht="12.75">
       <c r="N290" s="90"/>
     </row>
-    <row r="291">
+    <row r="291" spans="14:14" ht="12.75">
       <c r="N291" s="90"/>
     </row>
-    <row r="292">
+    <row r="292" spans="14:14" ht="12.75">
       <c r="N292" s="90"/>
     </row>
-    <row r="293">
+    <row r="293" spans="14:14" ht="12.75">
       <c r="N293" s="90"/>
     </row>
-    <row r="294">
+    <row r="294" spans="14:14" ht="12.75">
       <c r="N294" s="90"/>
     </row>
-    <row r="295">
+    <row r="295" spans="14:14" ht="12.75">
       <c r="N295" s="90"/>
     </row>
-    <row r="296">
+    <row r="296" spans="14:14" ht="12.75">
       <c r="N296" s="90"/>
     </row>
-    <row r="297">
+    <row r="297" spans="14:14" ht="12.75">
       <c r="N297" s="90"/>
     </row>
-    <row r="298">
+    <row r="298" spans="14:14" ht="12.75">
       <c r="N298" s="90"/>
     </row>
-    <row r="299">
+    <row r="299" spans="14:14" ht="12.75">
       <c r="N299" s="90"/>
     </row>
-    <row r="300">
+    <row r="300" spans="14:14" ht="12.75">
       <c r="N300" s="90"/>
     </row>
-    <row r="301">
+    <row r="301" spans="14:14" ht="12.75">
       <c r="N301" s="90"/>
     </row>
-    <row r="302">
+    <row r="302" spans="14:14" ht="12.75">
       <c r="N302" s="90"/>
     </row>
-    <row r="303">
+    <row r="303" spans="14:14" ht="12.75">
       <c r="N303" s="90"/>
     </row>
-    <row r="304">
+    <row r="304" spans="14:14" ht="12.75">
       <c r="N304" s="90"/>
     </row>
-    <row r="305">
+    <row r="305" spans="14:14" ht="12.75">
       <c r="N305" s="90"/>
     </row>
-    <row r="306">
+    <row r="306" spans="14:14" ht="12.75">
       <c r="N306" s="90"/>
     </row>
-    <row r="307">
+    <row r="307" spans="14:14" ht="12.75">
       <c r="N307" s="90"/>
     </row>
-    <row r="308">
+    <row r="308" spans="14:14" ht="12.75">
       <c r="N308" s="90"/>
     </row>
-    <row r="309">
+    <row r="309" spans="14:14" ht="12.75">
       <c r="N309" s="90"/>
     </row>
-    <row r="310">
+    <row r="310" spans="14:14" ht="12.75">
       <c r="N310" s="90"/>
     </row>
-    <row r="311">
+    <row r="311" spans="14:14" ht="12.75">
       <c r="N311" s="90"/>
     </row>
-    <row r="312">
+    <row r="312" spans="14:14" ht="12.75">
       <c r="N312" s="90"/>
     </row>
-    <row r="313">
+    <row r="313" spans="14:14" ht="12.75">
       <c r="N313" s="90"/>
     </row>
-    <row r="314">
+    <row r="314" spans="14:14" ht="12.75">
       <c r="N314" s="90"/>
     </row>
-    <row r="315">
+    <row r="315" spans="14:14" ht="12.75">
       <c r="N315" s="90"/>
     </row>
-    <row r="316">
+    <row r="316" spans="14:14" ht="12.75">
       <c r="N316" s="90"/>
     </row>
-    <row r="317">
+    <row r="317" spans="14:14" ht="12.75">
       <c r="N317" s="90"/>
     </row>
-    <row r="318">
+    <row r="318" spans="14:14" ht="12.75">
       <c r="N318" s="90"/>
     </row>
-    <row r="319">
+    <row r="319" spans="14:14" ht="12.75">
       <c r="N319" s="90"/>
     </row>
-    <row r="320">
+    <row r="320" spans="14:14" ht="12.75">
       <c r="N320" s="90"/>
     </row>
-    <row r="321">
+    <row r="321" spans="14:14" ht="12.75">
       <c r="N321" s="90"/>
     </row>
-    <row r="322">
+    <row r="322" spans="14:14" ht="12.75">
       <c r="N322" s="90"/>
     </row>
-    <row r="323">
+    <row r="323" spans="14:14" ht="12.75">
       <c r="N323" s="90"/>
     </row>
-    <row r="324">
+    <row r="324" spans="14:14" ht="12.75">
       <c r="N324" s="90"/>
     </row>
-    <row r="325">
+    <row r="325" spans="14:14" ht="12.75">
       <c r="N325" s="90"/>
     </row>
-    <row r="326">
+    <row r="326" spans="14:14" ht="12.75">
       <c r="N326" s="90"/>
     </row>
-    <row r="327">
+    <row r="327" spans="14:14" ht="12.75">
       <c r="N327" s="90"/>
     </row>
-    <row r="328">
+    <row r="328" spans="14:14" ht="12.75">
       <c r="N328" s="90"/>
     </row>
-    <row r="329">
+    <row r="329" spans="14:14" ht="12.75">
       <c r="N329" s="90"/>
     </row>
-    <row r="330">
+    <row r="330" spans="14:14" ht="12.75">
       <c r="N330" s="90"/>
     </row>
-    <row r="331">
+    <row r="331" spans="14:14" ht="12.75">
       <c r="N331" s="90"/>
     </row>
-    <row r="332">
+    <row r="332" spans="14:14" ht="12.75">
       <c r="N332" s="90"/>
     </row>
-    <row r="333">
+    <row r="333" spans="14:14" ht="12.75">
       <c r="N333" s="90"/>
     </row>
-    <row r="334">
+    <row r="334" spans="14:14" ht="12.75">
       <c r="N334" s="90"/>
     </row>
-    <row r="335">
+    <row r="335" spans="14:14" ht="12.75">
       <c r="N335" s="90"/>
     </row>
-    <row r="336">
+    <row r="336" spans="14:14" ht="12.75">
       <c r="N336" s="90"/>
     </row>
-    <row r="337">
+    <row r="337" spans="14:14" ht="12.75">
       <c r="N337" s="90"/>
     </row>
-    <row r="338">
+    <row r="338" spans="14:14" ht="12.75">
       <c r="N338" s="90"/>
     </row>
-    <row r="339">
+    <row r="339" spans="14:14" ht="12.75">
       <c r="N339" s="90"/>
     </row>
-    <row r="340">
+    <row r="340" spans="14:14" ht="12.75">
       <c r="N340" s="90"/>
     </row>
-    <row r="341">
+    <row r="341" spans="14:14" ht="12.75">
       <c r="N341" s="90"/>
     </row>
-    <row r="342">
+    <row r="342" spans="14:14" ht="12.75">
       <c r="N342" s="90"/>
     </row>
-    <row r="343">
+    <row r="343" spans="14:14" ht="12.75">
       <c r="N343" s="90"/>
     </row>
-    <row r="344">
+    <row r="344" spans="14:14" ht="12.75">
       <c r="N344" s="90"/>
     </row>
-    <row r="345">
+    <row r="345" spans="14:14" ht="12.75">
       <c r="N345" s="90"/>
     </row>
-    <row r="346">
+    <row r="346" spans="14:14" ht="12.75">
       <c r="N346" s="90"/>
     </row>
-    <row r="347">
+    <row r="347" spans="14:14" ht="12.75">
       <c r="N347" s="90"/>
     </row>
-    <row r="348">
+    <row r="348" spans="14:14" ht="12.75">
       <c r="N348" s="90"/>
     </row>
-    <row r="349">
+    <row r="349" spans="14:14" ht="12.75">
       <c r="N349" s="90"/>
     </row>
-    <row r="350">
+    <row r="350" spans="14:14" ht="12.75">
       <c r="N350" s="90"/>
     </row>
-    <row r="351">
+    <row r="351" spans="14:14" ht="12.75">
       <c r="N351" s="90"/>
     </row>
-    <row r="352">
+    <row r="352" spans="14:14" ht="12.75">
       <c r="N352" s="90"/>
     </row>
-    <row r="353">
+    <row r="353" spans="14:14" ht="12.75">
       <c r="N353" s="90"/>
     </row>
-    <row r="354">
+    <row r="354" spans="14:14" ht="12.75">
       <c r="N354" s="90"/>
     </row>
-    <row r="355">
+    <row r="355" spans="14:14" ht="12.75">
       <c r="N355" s="90"/>
     </row>
-    <row r="356">
+    <row r="356" spans="14:14" ht="12.75">
       <c r="N356" s="90"/>
     </row>
-    <row r="357">
+    <row r="357" spans="14:14" ht="12.75">
       <c r="N357" s="90"/>
     </row>
-    <row r="358">
+    <row r="358" spans="14:14" ht="12.75">
       <c r="N358" s="90"/>
     </row>
-    <row r="359">
+    <row r="359" spans="14:14" ht="12.75">
       <c r="N359" s="90"/>
     </row>
-    <row r="360">
+    <row r="360" spans="14:14" ht="12.75">
       <c r="N360" s="90"/>
     </row>
-    <row r="361">
+    <row r="361" spans="14:14" ht="12.75">
       <c r="N361" s="90"/>
     </row>
-    <row r="362">
+    <row r="362" spans="14:14" ht="12.75">
       <c r="N362" s="90"/>
     </row>
-    <row r="363">
+    <row r="363" spans="14:14" ht="12.75">
       <c r="N363" s="90"/>
     </row>
-    <row r="364">
+    <row r="364" spans="14:14" ht="12.75">
       <c r="N364" s="90"/>
     </row>
-    <row r="365">
+    <row r="365" spans="14:14" ht="12.75">
       <c r="N365" s="90"/>
     </row>
-    <row r="366">
+    <row r="366" spans="14:14" ht="12.75">
       <c r="N366" s="90"/>
     </row>
-    <row r="367">
+    <row r="367" spans="14:14" ht="12.75">
       <c r="N367" s="90"/>
     </row>
-    <row r="368">
+    <row r="368" spans="14:14" ht="12.75">
       <c r="N368" s="90"/>
     </row>
-    <row r="369">
+    <row r="369" spans="14:14" ht="12.75">
       <c r="N369" s="90"/>
     </row>
-    <row r="370">
+    <row r="370" spans="14:14" ht="12.75">
       <c r="N370" s="90"/>
     </row>
-    <row r="371">
+    <row r="371" spans="14:14" ht="12.75">
       <c r="N371" s="90"/>
     </row>
-    <row r="372">
+    <row r="372" spans="14:14" ht="12.75">
       <c r="N372" s="90"/>
     </row>
-    <row r="373">
+    <row r="373" spans="14:14" ht="12.75">
       <c r="N373" s="90"/>
     </row>
-    <row r="374">
+    <row r="374" spans="14:14" ht="12.75">
       <c r="N374" s="90"/>
     </row>
-    <row r="375">
+    <row r="375" spans="14:14" ht="12.75">
       <c r="N375" s="90"/>
     </row>
-    <row r="376">
+    <row r="376" spans="14:14" ht="12.75">
       <c r="N376" s="90"/>
     </row>
-    <row r="377">
+    <row r="377" spans="14:14" ht="12.75">
       <c r="N377" s="90"/>
     </row>
-    <row r="378">
+    <row r="378" spans="14:14" ht="12.75">
       <c r="N378" s="90"/>
     </row>
-    <row r="379">
+    <row r="379" spans="14:14" ht="12.75">
       <c r="N379" s="90"/>
     </row>
-    <row r="380">
+    <row r="380" spans="14:14" ht="12.75">
       <c r="N380" s="90"/>
     </row>
-    <row r="381">
+    <row r="381" spans="14:14" ht="12.75">
       <c r="N381" s="90"/>
     </row>
-    <row r="382">
+    <row r="382" spans="14:14" ht="12.75">
       <c r="N382" s="90"/>
     </row>
-    <row r="383">
+    <row r="383" spans="14:14" ht="12.75">
       <c r="N383" s="90"/>
     </row>
-    <row r="384">
+    <row r="384" spans="14:14" ht="12.75">
       <c r="N384" s="90"/>
     </row>
-    <row r="385">
+    <row r="385" spans="14:14" ht="12.75">
       <c r="N385" s="90"/>
     </row>
-    <row r="386">
+    <row r="386" spans="14:14" ht="12.75">
       <c r="N386" s="90"/>
     </row>
-    <row r="387">
+    <row r="387" spans="14:14" ht="12.75">
       <c r="N387" s="90"/>
     </row>
-    <row r="388">
+    <row r="388" spans="14:14" ht="12.75">
       <c r="N388" s="90"/>
     </row>
-    <row r="389">
+    <row r="389" spans="14:14" ht="12.75">
       <c r="N389" s="90"/>
     </row>
-    <row r="390">
+    <row r="390" spans="14:14" ht="12.75">
       <c r="N390" s="90"/>
     </row>
-    <row r="391">
+    <row r="391" spans="14:14" ht="12.75">
       <c r="N391" s="90"/>
     </row>
-    <row r="392">
+    <row r="392" spans="14:14" ht="12.75">
       <c r="N392" s="90"/>
     </row>
-    <row r="393">
+    <row r="393" spans="14:14" ht="12.75">
       <c r="N393" s="90"/>
     </row>
-    <row r="394">
+    <row r="394" spans="14:14" ht="12.75">
       <c r="N394" s="90"/>
     </row>
-    <row r="395">
+    <row r="395" spans="14:14" ht="12.75">
       <c r="N395" s="90"/>
     </row>
-    <row r="396">
+    <row r="396" spans="14:14" ht="12.75">
       <c r="N396" s="90"/>
     </row>
-    <row r="397">
+    <row r="397" spans="14:14" ht="12.75">
       <c r="N397" s="90"/>
     </row>
-    <row r="398">
+    <row r="398" spans="14:14" ht="12.75">
       <c r="N398" s="90"/>
     </row>
-    <row r="399">
+    <row r="399" spans="14:14" ht="12.75">
       <c r="N399" s="90"/>
     </row>
-    <row r="400">
+    <row r="400" spans="14:14" ht="12.75">
       <c r="N400" s="90"/>
     </row>
-    <row r="401">
+    <row r="401" spans="14:14" ht="12.75">
       <c r="N401" s="90"/>
     </row>
-    <row r="402">
+    <row r="402" spans="14:14" ht="12.75">
       <c r="N402" s="90"/>
     </row>
-    <row r="403">
+    <row r="403" spans="14:14" ht="12.75">
       <c r="N403" s="90"/>
     </row>
-    <row r="404">
+    <row r="404" spans="14:14" ht="12.75">
       <c r="N404" s="90"/>
     </row>
-    <row r="405">
+    <row r="405" spans="14:14" ht="12.75">
       <c r="N405" s="90"/>
     </row>
-    <row r="406">
+    <row r="406" spans="14:14" ht="12.75">
       <c r="N406" s="90"/>
     </row>
-    <row r="407">
+    <row r="407" spans="14:14" ht="12.75">
       <c r="N407" s="90"/>
     </row>
-    <row r="408">
+    <row r="408" spans="14:14" ht="12.75">
       <c r="N408" s="90"/>
     </row>
-    <row r="409">
+    <row r="409" spans="14:14" ht="12.75">
       <c r="N409" s="90"/>
     </row>
-    <row r="410">
+    <row r="410" spans="14:14" ht="12.75">
       <c r="N410" s="90"/>
     </row>
-    <row r="411">
+    <row r="411" spans="14:14" ht="12.75">
       <c r="N411" s="90"/>
     </row>
-    <row r="412">
+    <row r="412" spans="14:14" ht="12.75">
       <c r="N412" s="90"/>
     </row>
-    <row r="413">
+    <row r="413" spans="14:14" ht="12.75">
       <c r="N413" s="90"/>
     </row>
-    <row r="414">
+    <row r="414" spans="14:14" ht="12.75">
       <c r="N414" s="90"/>
     </row>
-    <row r="415">
+    <row r="415" spans="14:14" ht="12.75">
       <c r="N415" s="90"/>
     </row>
-    <row r="416">
+    <row r="416" spans="14:14" ht="12.75">
       <c r="N416" s="90"/>
     </row>
-    <row r="417">
+    <row r="417" spans="14:14" ht="12.75">
       <c r="N417" s="90"/>
     </row>
-    <row r="418">
+    <row r="418" spans="14:14" ht="12.75">
       <c r="N418" s="90"/>
     </row>
-    <row r="419">
+    <row r="419" spans="14:14" ht="12.75">
       <c r="N419" s="90"/>
     </row>
-    <row r="420">
+    <row r="420" spans="14:14" ht="12.75">
       <c r="N420" s="90"/>
     </row>
-    <row r="421">
+    <row r="421" spans="14:14" ht="12.75">
       <c r="N421" s="90"/>
     </row>
-    <row r="422">
+    <row r="422" spans="14:14" ht="12.75">
       <c r="N422" s="90"/>
     </row>
-    <row r="423">
+    <row r="423" spans="14:14" ht="12.75">
       <c r="N423" s="90"/>
     </row>
-    <row r="424">
+    <row r="424" spans="14:14" ht="12.75">
       <c r="N424" s="90"/>
     </row>
-    <row r="425">
+    <row r="425" spans="14:14" ht="12.75">
       <c r="N425" s="90"/>
     </row>
-    <row r="426">
+    <row r="426" spans="14:14" ht="12.75">
       <c r="N426" s="90"/>
     </row>
-    <row r="427">
+    <row r="427" spans="14:14" ht="12.75">
       <c r="N427" s="90"/>
     </row>
-    <row r="428">
+    <row r="428" spans="14:14" ht="12.75">
       <c r="N428" s="90"/>
     </row>
-    <row r="429">
+    <row r="429" spans="14:14" ht="12.75">
       <c r="N429" s="90"/>
     </row>
-    <row r="430">
+    <row r="430" spans="14:14" ht="12.75">
       <c r="N430" s="90"/>
     </row>
-    <row r="431">
+    <row r="431" spans="14:14" ht="12.75">
       <c r="N431" s="90"/>
     </row>
-    <row r="432">
+    <row r="432" spans="14:14" ht="12.75">
       <c r="N432" s="90"/>
     </row>
-    <row r="433">
+    <row r="433" spans="14:14" ht="12.75">
       <c r="N433" s="90"/>
     </row>
-    <row r="434">
+    <row r="434" spans="14:14" ht="12.75">
       <c r="N434" s="90"/>
     </row>
-    <row r="435">
+    <row r="435" spans="14:14" ht="12.75">
       <c r="N435" s="90"/>
     </row>
-    <row r="436">
+    <row r="436" spans="14:14" ht="12.75">
       <c r="N436" s="90"/>
     </row>
-    <row r="437">
+    <row r="437" spans="14:14" ht="12.75">
       <c r="N437" s="90"/>
     </row>
-    <row r="438">
+    <row r="438" spans="14:14" ht="12.75">
       <c r="N438" s="90"/>
     </row>
-    <row r="439">
+    <row r="439" spans="14:14" ht="12.75">
       <c r="N439" s="90"/>
     </row>
-    <row r="440">
+    <row r="440" spans="14:14" ht="12.75">
       <c r="N440" s="90"/>
     </row>
-    <row r="441">
+    <row r="441" spans="14:14" ht="12.75">
       <c r="N441" s="90"/>
     </row>
-    <row r="442">
+    <row r="442" spans="14:14" ht="12.75">
       <c r="N442" s="90"/>
     </row>
-    <row r="443">
+    <row r="443" spans="14:14" ht="12.75">
       <c r="N443" s="90"/>
     </row>
-    <row r="444">
+    <row r="444" spans="14:14" ht="12.75">
       <c r="N444" s="90"/>
     </row>
-    <row r="445">
+    <row r="445" spans="14:14" ht="12.75">
       <c r="N445" s="90"/>
     </row>
-    <row r="446">
+    <row r="446" spans="14:14" ht="12.75">
       <c r="N446" s="90"/>
     </row>
-    <row r="447">
+    <row r="447" spans="14:14" ht="12.75">
       <c r="N447" s="90"/>
     </row>
-    <row r="448">
+    <row r="448" spans="14:14" ht="12.75">
       <c r="N448" s="90"/>
     </row>
-    <row r="449">
+    <row r="449" spans="14:14" ht="12.75">
       <c r="N449" s="90"/>
     </row>
-    <row r="450">
+    <row r="450" spans="14:14" ht="12.75">
       <c r="N450" s="90"/>
     </row>
-    <row r="451">
+    <row r="451" spans="14:14" ht="12.75">
       <c r="N451" s="90"/>
     </row>
-    <row r="452">
+    <row r="452" spans="14:14" ht="12.75">
       <c r="N452" s="90"/>
     </row>
-    <row r="453">
+    <row r="453" spans="14:14" ht="12.75">
       <c r="N453" s="90"/>
     </row>
-    <row r="454">
+    <row r="454" spans="14:14" ht="12.75">
       <c r="N454" s="90"/>
     </row>
-    <row r="455">
+    <row r="455" spans="14:14" ht="12.75">
       <c r="N455" s="90"/>
     </row>
-    <row r="456">
+    <row r="456" spans="14:14" ht="12.75">
       <c r="N456" s="90"/>
     </row>
-    <row r="457">
+    <row r="457" spans="14:14" ht="12.75">
       <c r="N457" s="90"/>
     </row>
-    <row r="458">
+    <row r="458" spans="14:14" ht="12.75">
       <c r="N458" s="90"/>
     </row>
-    <row r="459">
+    <row r="459" spans="14:14" ht="12.75">
       <c r="N459" s="90"/>
     </row>
-    <row r="460">
+    <row r="460" spans="14:14" ht="12.75">
       <c r="N460" s="90"/>
     </row>
-    <row r="461">
+    <row r="461" spans="14:14" ht="12.75">
       <c r="N461" s="90"/>
     </row>
-    <row r="462">
+    <row r="462" spans="14:14" ht="12.75">
       <c r="N462" s="90"/>
     </row>
-    <row r="463">
+    <row r="463" spans="14:14" ht="12.75">
       <c r="N463" s="90"/>
     </row>
-    <row r="464">
+    <row r="464" spans="14:14" ht="12.75">
       <c r="N464" s="90"/>
     </row>
-    <row r="465">
+    <row r="465" spans="14:14" ht="12.75">
       <c r="N465" s="90"/>
     </row>
-    <row r="466">
+    <row r="466" spans="14:14" ht="12.75">
       <c r="N466" s="90"/>
     </row>
-    <row r="467">
+    <row r="467" spans="14:14" ht="12.75">
       <c r="N467" s="90"/>
     </row>
-    <row r="468">
+    <row r="468" spans="14:14" ht="12.75">
       <c r="N468" s="90"/>
     </row>
-    <row r="469">
+    <row r="469" spans="14:14" ht="12.75">
       <c r="N469" s="90"/>
     </row>
-    <row r="470">
+    <row r="470" spans="14:14" ht="12.75">
       <c r="N470" s="90"/>
     </row>
-    <row r="471">
+    <row r="471" spans="14:14" ht="12.75">
       <c r="N471" s="90"/>
     </row>
-    <row r="472">
+    <row r="472" spans="14:14" ht="12.75">
       <c r="N472" s="90"/>
     </row>
-    <row r="473">
+    <row r="473" spans="14:14" ht="12.75">
       <c r="N473" s="90"/>
     </row>
-    <row r="474">
+    <row r="474" spans="14:14" ht="12.75">
       <c r="N474" s="90"/>
     </row>
-    <row r="475">
+    <row r="475" spans="14:14" ht="12.75">
       <c r="N475" s="90"/>
     </row>
-    <row r="476">
+    <row r="476" spans="14:14" ht="12.75">
       <c r="N476" s="90"/>
     </row>
-    <row r="477">
+    <row r="477" spans="14:14" ht="12.75">
       <c r="N477" s="90"/>
     </row>
-    <row r="478">
+    <row r="478" spans="14:14" ht="12.75">
       <c r="N478" s="90"/>
     </row>
-    <row r="479">
+    <row r="479" spans="14:14" ht="12.75">
       <c r="N479" s="90"/>
     </row>
-    <row r="480">
+    <row r="480" spans="14:14" ht="12.75">
       <c r="N480" s="90"/>
     </row>
-    <row r="481">
+    <row r="481" spans="14:14" ht="12.75">
       <c r="N481" s="90"/>
     </row>
-    <row r="482">
+    <row r="482" spans="14:14" ht="12.75">
       <c r="N482" s="90"/>
     </row>
-    <row r="483">
+    <row r="483" spans="14:14" ht="12.75">
       <c r="N483" s="90"/>
     </row>
-    <row r="484">
+    <row r="484" spans="14:14" ht="12.75">
       <c r="N484" s="90"/>
     </row>
-    <row r="485">
+    <row r="485" spans="14:14" ht="12.75">
       <c r="N485" s="90"/>
     </row>
-    <row r="486">
+    <row r="486" spans="14:14" ht="12.75">
       <c r="N486" s="90"/>
     </row>
-    <row r="487">
+    <row r="487" spans="14:14" ht="12.75">
       <c r="N487" s="90"/>
     </row>
-    <row r="488">
+    <row r="488" spans="14:14" ht="12.75">
       <c r="N488" s="90"/>
     </row>
-    <row r="489">
+    <row r="489" spans="14:14" ht="12.75">
       <c r="N489" s="90"/>
     </row>
-    <row r="490">
+    <row r="490" spans="14:14" ht="12.75">
       <c r="N490" s="90"/>
     </row>
-    <row r="491">
+    <row r="491" spans="14:14" ht="12.75">
       <c r="N491" s="90"/>
     </row>
-    <row r="492">
+    <row r="492" spans="14:14" ht="12.75">
       <c r="N492" s="90"/>
     </row>
-    <row r="493">
+    <row r="493" spans="14:14" ht="12.75">
       <c r="N493" s="90"/>
     </row>
-    <row r="494">
+    <row r="494" spans="14:14" ht="12.75">
       <c r="N494" s="90"/>
     </row>
-    <row r="495">
+    <row r="495" spans="14:14" ht="12.75">
       <c r="N495" s="90"/>
     </row>
-    <row r="496">
+    <row r="496" spans="14:14" ht="12.75">
       <c r="N496" s="90"/>
     </row>
-    <row r="497">
+    <row r="497" spans="14:14" ht="12.75">
       <c r="N497" s="90"/>
     </row>
-    <row r="498">
+    <row r="498" spans="14:14" ht="12.75">
       <c r="N498" s="90"/>
     </row>
-    <row r="499">
+    <row r="499" spans="14:14" ht="12.75">
       <c r="N499" s="90"/>
     </row>
-    <row r="500">
+    <row r="500" spans="14:14" ht="12.75">
       <c r="N500" s="90"/>
     </row>
-    <row r="501">
+    <row r="501" spans="14:14" ht="12.75">
       <c r="N501" s="90"/>
     </row>
-    <row r="502">
+    <row r="502" spans="14:14" ht="12.75">
       <c r="N502" s="90"/>
     </row>
-    <row r="503">
+    <row r="503" spans="14:14" ht="12.75">
       <c r="N503" s="90"/>
     </row>
-    <row r="504">
+    <row r="504" spans="14:14" ht="12.75">
       <c r="N504" s="90"/>
     </row>
-    <row r="505">
+    <row r="505" spans="14:14" ht="12.75">
       <c r="N505" s="90"/>
     </row>
-    <row r="506">
+    <row r="506" spans="14:14" ht="12.75">
       <c r="N506" s="90"/>
     </row>
-    <row r="507">
+    <row r="507" spans="14:14" ht="12.75">
       <c r="N507" s="90"/>
     </row>
-    <row r="508">
+    <row r="508" spans="14:14" ht="12.75">
       <c r="N508" s="90"/>
     </row>
-    <row r="509">
+    <row r="509" spans="14:14" ht="12.75">
       <c r="N509" s="90"/>
     </row>
-    <row r="510">
+    <row r="510" spans="14:14" ht="12.75">
       <c r="N510" s="90"/>
     </row>
-    <row r="511">
+    <row r="511" spans="14:14" ht="12.75">
       <c r="N511" s="90"/>
     </row>
-    <row r="512">
+    <row r="512" spans="14:14" ht="12.75">
       <c r="N512" s="90"/>
     </row>
-    <row r="513">
+    <row r="513" spans="14:14" ht="12.75">
       <c r="N513" s="90"/>
     </row>
-    <row r="514">
+    <row r="514" spans="14:14" ht="12.75">
       <c r="N514" s="90"/>
     </row>
-    <row r="515">
+    <row r="515" spans="14:14" ht="12.75">
       <c r="N515" s="90"/>
     </row>
-    <row r="516">
+    <row r="516" spans="14:14" ht="12.75">
       <c r="N516" s="90"/>
     </row>
-    <row r="517">
+    <row r="517" spans="14:14" ht="12.75">
       <c r="N517" s="90"/>
     </row>
-    <row r="518">
+    <row r="518" spans="14:14" ht="12.75">
       <c r="N518" s="90"/>
     </row>
-    <row r="519">
+    <row r="519" spans="14:14" ht="12.75">
       <c r="N519" s="90"/>
     </row>
-    <row r="520">
+    <row r="520" spans="14:14" ht="12.75">
       <c r="N520" s="90"/>
     </row>
-    <row r="521">
+    <row r="521" spans="14:14" ht="12.75">
       <c r="N521" s="90"/>
     </row>
-    <row r="522">
+    <row r="522" spans="14:14" ht="12.75">
       <c r="N522" s="90"/>
     </row>
-    <row r="523">
+    <row r="523" spans="14:14" ht="12.75">
       <c r="N523" s="90"/>
     </row>
-    <row r="524">
+    <row r="524" spans="14:14" ht="12.75">
       <c r="N524" s="90"/>
     </row>
-    <row r="525">
+    <row r="525" spans="14:14" ht="12.75">
       <c r="N525" s="90"/>
     </row>
-    <row r="526">
+    <row r="526" spans="14:14" ht="12.75">
       <c r="N526" s="90"/>
     </row>
-    <row r="527">
+    <row r="527" spans="14:14" ht="12.75">
       <c r="N527" s="90"/>
     </row>
-    <row r="528">
+    <row r="528" spans="14:14" ht="12.75">
       <c r="N528" s="90"/>
     </row>
-    <row r="529">
+    <row r="529" spans="14:14" ht="12.75">
       <c r="N529" s="90"/>
     </row>
-    <row r="530">
+    <row r="530" spans="14:14" ht="12.75">
       <c r="N530" s="90"/>
     </row>
-    <row r="531">
+    <row r="531" spans="14:14" ht="12.75">
       <c r="N531" s="90"/>
     </row>
-    <row r="532">
+    <row r="532" spans="14:14" ht="12.75">
       <c r="N532" s="90"/>
     </row>
-    <row r="533">
+    <row r="533" spans="14:14" ht="12.75">
       <c r="N533" s="90"/>
     </row>
-    <row r="534">
+    <row r="534" spans="14:14" ht="12.75">
       <c r="N534" s="90"/>
     </row>
-    <row r="535">
+    <row r="535" spans="14:14" ht="12.75">
       <c r="N535" s="90"/>
     </row>
-    <row r="536">
+    <row r="536" spans="14:14" ht="12.75">
       <c r="N536" s="90"/>
     </row>
-    <row r="537">
+    <row r="537" spans="14:14" ht="12.75">
       <c r="N537" s="90"/>
     </row>
-    <row r="538">
+    <row r="538" spans="14:14" ht="12.75">
       <c r="N538" s="90"/>
     </row>
-    <row r="539">
+    <row r="539" spans="14:14" ht="12.75">
       <c r="N539" s="90"/>
     </row>
-    <row r="540">
+    <row r="540" spans="14:14" ht="12.75">
       <c r="N540" s="90"/>
     </row>
-    <row r="541">
+    <row r="541" spans="14:14" ht="12.75">
       <c r="N541" s="90"/>
     </row>
-    <row r="542">
+    <row r="542" spans="14:14" ht="12.75">
       <c r="N542" s="90"/>
     </row>
-    <row r="543">
+    <row r="543" spans="14:14" ht="12.75">
       <c r="N543" s="90"/>
     </row>
-    <row r="544">
+    <row r="544" spans="14:14" ht="12.75">
       <c r="N544" s="90"/>
     </row>
-    <row r="545">
+    <row r="545" spans="14:14" ht="12.75">
       <c r="N545" s="90"/>
     </row>
-    <row r="546">
+    <row r="546" spans="14:14" ht="12.75">
       <c r="N546" s="90"/>
     </row>
-    <row r="547">
+    <row r="547" spans="14:14" ht="12.75">
       <c r="N547" s="90"/>
     </row>
-    <row r="548">
+    <row r="548" spans="14:14" ht="12.75">
       <c r="N548" s="90"/>
     </row>
-    <row r="549">
+    <row r="549" spans="14:14" ht="12.75">
       <c r="N549" s="90"/>
     </row>
-    <row r="550">
+    <row r="550" spans="14:14" ht="12.75">
       <c r="N550" s="90"/>
     </row>
-    <row r="551">
+    <row r="551" spans="14:14" ht="12.75">
       <c r="N551" s="90"/>
     </row>
-    <row r="552">
+    <row r="552" spans="14:14" ht="12.75">
       <c r="N552" s="90"/>
     </row>
-    <row r="553">
+    <row r="553" spans="14:14" ht="12.75">
       <c r="N553" s="90"/>
     </row>
-    <row r="554">
+    <row r="554" spans="14:14" ht="12.75">
       <c r="N554" s="90"/>
     </row>
-    <row r="555">
+    <row r="555" spans="14:14" ht="12.75">
       <c r="N555" s="90"/>
     </row>
-    <row r="556">
+    <row r="556" spans="14:14" ht="12.75">
       <c r="N556" s="90"/>
     </row>
-    <row r="557">
+    <row r="557" spans="14:14" ht="12.75">
       <c r="N557" s="90"/>
     </row>
-    <row r="558">
+    <row r="558" spans="14:14" ht="12.75">
       <c r="N558" s="90"/>
     </row>
-    <row r="559">
+    <row r="559" spans="14:14" ht="12.75">
       <c r="N559" s="90"/>
     </row>
-    <row r="560">
+    <row r="560" spans="14:14" ht="12.75">
       <c r="N560" s="90"/>
     </row>
-    <row r="561">
+    <row r="561" spans="14:14" ht="12.75">
       <c r="N561" s="90"/>
     </row>
-    <row r="562">
+    <row r="562" spans="14:14" ht="12.75">
       <c r="N562" s="90"/>
     </row>
-    <row r="563">
+    <row r="563" spans="14:14" ht="12.75">
       <c r="N563" s="90"/>
     </row>
-    <row r="564">
+    <row r="564" spans="14:14" ht="12.75">
       <c r="N564" s="90"/>
     </row>
-    <row r="565">
+    <row r="565" spans="14:14" ht="12.75">
       <c r="N565" s="90"/>
     </row>
-    <row r="566">
+    <row r="566" spans="14:14" ht="12.75">
       <c r="N566" s="90"/>
     </row>
-    <row r="567">
+    <row r="567" spans="14:14" ht="12.75">
       <c r="N567" s="90"/>
     </row>
-    <row r="568">
+    <row r="568" spans="14:14" ht="12.75">
       <c r="N568" s="90"/>
     </row>
-    <row r="569">
+    <row r="569" spans="14:14" ht="12.75">
       <c r="N569" s="90"/>
     </row>
-    <row r="570">
+    <row r="570" spans="14:14" ht="12.75">
       <c r="N570" s="90"/>
     </row>
-    <row r="571">
+    <row r="571" spans="14:14" ht="12.75">
       <c r="N571" s="90"/>
     </row>
-    <row r="572">
+    <row r="572" spans="14:14" ht="12.75">
       <c r="N572" s="90"/>
     </row>
-    <row r="573">
+    <row r="573" spans="14:14" ht="12.75">
       <c r="N573" s="90"/>
     </row>
-    <row r="574">
+    <row r="574" spans="14:14" ht="12.75">
       <c r="N574" s="90"/>
     </row>
-    <row r="575">
+    <row r="575" spans="14:14" ht="12.75">
       <c r="N575" s="90"/>
     </row>
-    <row r="576">
+    <row r="576" spans="14:14" ht="12.75">
       <c r="N576" s="90"/>
     </row>
-    <row r="577">
+    <row r="577" spans="14:14" ht="12.75">
       <c r="N577" s="90"/>
     </row>
-    <row r="578">
+    <row r="578" spans="14:14" ht="12.75">
       <c r="N578" s="90"/>
     </row>
-    <row r="579">
+    <row r="579" spans="14:14" ht="12.75">
       <c r="N579" s="90"/>
     </row>
-    <row r="580">
+    <row r="580" spans="14:14" ht="12.75">
       <c r="N580" s="90"/>
     </row>
-    <row r="581">
+    <row r="581" spans="14:14" ht="12.75">
       <c r="N581" s="90"/>
     </row>
-    <row r="582">
+    <row r="582" spans="14:14" ht="12.75">
       <c r="N582" s="90"/>
     </row>
-    <row r="583">
+    <row r="583" spans="14:14" ht="12.75">
       <c r="N583" s="90"/>
     </row>
-    <row r="584">
+    <row r="584" spans="14:14" ht="12.75">
       <c r="N584" s="90"/>
     </row>
-    <row r="585">
+    <row r="585" spans="14:14" ht="12.75">
       <c r="N585" s="90"/>
     </row>
-    <row r="586">
+    <row r="586" spans="14:14" ht="12.75">
       <c r="N586" s="90"/>
     </row>
-    <row r="587">
+    <row r="587" spans="14:14" ht="12.75">
       <c r="N587" s="90"/>
     </row>
-    <row r="588">
+    <row r="588" spans="14:14" ht="12.75">
       <c r="N588" s="90"/>
     </row>
-    <row r="589">
+    <row r="589" spans="14:14" ht="12.75">
       <c r="N589" s="90"/>
     </row>
-    <row r="590">
+    <row r="590" spans="14:14" ht="12.75">
       <c r="N590" s="90"/>
     </row>
-    <row r="591">
+    <row r="591" spans="14:14" ht="12.75">
       <c r="N591" s="90"/>
     </row>
-    <row r="592">
+    <row r="592" spans="14:14" ht="12.75">
       <c r="N592" s="90"/>
     </row>
-    <row r="593">
+    <row r="593" spans="14:14" ht="12.75">
       <c r="N593" s="90"/>
     </row>
-    <row r="594">
+    <row r="594" spans="14:14" ht="12.75">
       <c r="N594" s="90"/>
     </row>
-    <row r="595">
+    <row r="595" spans="14:14" ht="12.75">
       <c r="N595" s="90"/>
     </row>
-    <row r="596">
+    <row r="596" spans="14:14" ht="12.75">
       <c r="N596" s="90"/>
     </row>
-    <row r="597">
+    <row r="597" spans="14:14" ht="12.75">
       <c r="N597" s="90"/>
     </row>
-    <row r="598">
+    <row r="598" spans="14:14" ht="12.75">
       <c r="N598" s="90"/>
     </row>
-    <row r="599">
+    <row r="599" spans="14:14" ht="12.75">
       <c r="N599" s="90"/>
     </row>
-    <row r="600">
+    <row r="600" spans="14:14" ht="12.75">
       <c r="N600" s="90"/>
     </row>
-    <row r="601">
+    <row r="601" spans="14:14" ht="12.75">
       <c r="N601" s="90"/>
     </row>
-    <row r="602">
+    <row r="602" spans="14:14" ht="12.75">
       <c r="N602" s="90"/>
     </row>
-    <row r="603">
+    <row r="603" spans="14:14" ht="12.75">
       <c r="N603" s="90"/>
     </row>
-    <row r="604">
+    <row r="604" spans="14:14" ht="12.75">
       <c r="N604" s="90"/>
     </row>
-    <row r="605">
+    <row r="605" spans="14:14" ht="12.75">
       <c r="N605" s="90"/>
     </row>
-    <row r="606">
+    <row r="606" spans="14:14" ht="12.75">
       <c r="N606" s="90"/>
     </row>
-    <row r="607">
+    <row r="607" spans="14:14" ht="12.75">
       <c r="N607" s="90"/>
     </row>
-    <row r="608">
+    <row r="608" spans="14:14" ht="12.75">
       <c r="N608" s="90"/>
     </row>
-    <row r="609">
+    <row r="609" spans="14:14" ht="12.75">
       <c r="N609" s="90"/>
     </row>
-    <row r="610">
+    <row r="610" spans="14:14" ht="12.75">
       <c r="N610" s="90"/>
     </row>
-    <row r="611">
+    <row r="611" spans="14:14" ht="12.75">
       <c r="N611" s="90"/>
     </row>
-    <row r="612">
+    <row r="612" spans="14:14" ht="12.75">
       <c r="N612" s="90"/>
     </row>
-    <row r="613">
+    <row r="613" spans="14:14" ht="12.75">
       <c r="N613" s="90"/>
     </row>
-    <row r="614">
+    <row r="614" spans="14:14" ht="12.75">
       <c r="N614" s="90"/>
     </row>
-    <row r="615">
+    <row r="615" spans="14:14" ht="12.75">
       <c r="N615" s="90"/>
     </row>
-    <row r="616">
+    <row r="616" spans="14:14" ht="12.75">
       <c r="N616" s="90"/>
     </row>
-    <row r="617">
+    <row r="617" spans="14:14" ht="12.75">
       <c r="N617" s="90"/>
     </row>
-    <row r="618">
+    <row r="618" spans="14:14" ht="12.75">
       <c r="N618" s="90"/>
     </row>
-    <row r="619">
+    <row r="619" spans="14:14" ht="12.75">
       <c r="N619" s="90"/>
     </row>
-    <row r="620">
+    <row r="620" spans="14:14" ht="12.75">
       <c r="N620" s="90"/>
     </row>
-    <row r="621">
+    <row r="621" spans="14:14" ht="12.75">
       <c r="N621" s="90"/>
     </row>
-    <row r="622">
+    <row r="622" spans="14:14" ht="12.75">
       <c r="N622" s="90"/>
     </row>
-    <row r="623">
+    <row r="623" spans="14:14" ht="12.75">
       <c r="N623" s="90"/>
     </row>
-    <row r="624">
+    <row r="624" spans="14:14" ht="12.75">
       <c r="N624" s="90"/>
     </row>
-    <row r="625">
+    <row r="625" spans="14:14" ht="12.75">
       <c r="N625" s="90"/>
     </row>
-    <row r="626">
+    <row r="626" spans="14:14" ht="12.75">
       <c r="N626" s="90"/>
     </row>
-    <row r="627">
+    <row r="627" spans="14:14" ht="12.75">
       <c r="N627" s="90"/>
     </row>
-    <row r="628">
+    <row r="628" spans="14:14" ht="12.75">
       <c r="N628" s="90"/>
     </row>
-    <row r="629">
+    <row r="629" spans="14:14" ht="12.75">
       <c r="N629" s="90"/>
     </row>
-    <row r="630">
+    <row r="630" spans="14:14" ht="12.75">
       <c r="N630" s="90"/>
     </row>
-    <row r="631">
+    <row r="631" spans="14:14" ht="12.75">
       <c r="N631" s="90"/>
     </row>
-    <row r="632">
+    <row r="632" spans="14:14" ht="12.75">
       <c r="N632" s="90"/>
     </row>
-    <row r="633">
+    <row r="633" spans="14:14" ht="12.75">
       <c r="N633" s="90"/>
     </row>
-    <row r="634">
+    <row r="634" spans="14:14" ht="12.75">
       <c r="N634" s="90"/>
     </row>
-    <row r="635">
+    <row r="635" spans="14:14" ht="12.75">
       <c r="N635" s="90"/>
     </row>
-    <row r="636">
+    <row r="636" spans="14:14" ht="12.75">
       <c r="N636" s="90"/>
     </row>
-    <row r="637">
+    <row r="637" spans="14:14" ht="12.75">
       <c r="N637" s="90"/>
     </row>
-    <row r="638">
+    <row r="638" spans="14:14" ht="12.75">
       <c r="N638" s="90"/>
     </row>
-    <row r="639">
+    <row r="639" spans="14:14" ht="12.75">
       <c r="N639" s="90"/>
     </row>
-    <row r="640">
+    <row r="640" spans="14:14" ht="12.75">
       <c r="N640" s="90"/>
     </row>
-    <row r="641">
+    <row r="641" spans="14:14" ht="12.75">
       <c r="N641" s="90"/>
     </row>
-    <row r="642">
+    <row r="642" spans="14:14" ht="12.75">
       <c r="N642" s="90"/>
     </row>
-    <row r="643">
+    <row r="643" spans="14:14" ht="12.75">
       <c r="N643" s="90"/>
     </row>
-    <row r="644">
+    <row r="644" spans="14:14" ht="12.75">
       <c r="N644" s="90"/>
     </row>
-    <row r="645">
+    <row r="645" spans="14:14" ht="12.75">
       <c r="N645" s="90"/>
     </row>
-    <row r="646">
+    <row r="646" spans="14:14" ht="12.75">
       <c r="N646" s="90"/>
     </row>
-    <row r="647">
+    <row r="647" spans="14:14" ht="12.75">
       <c r="N647" s="90"/>
     </row>
-    <row r="648">
+    <row r="648" spans="14:14" ht="12.75">
       <c r="N648" s="90"/>
     </row>
-    <row r="649">
+    <row r="649" spans="14:14" ht="12.75">
       <c r="N649" s="90"/>
     </row>
-    <row r="650">
+    <row r="650" spans="14:14" ht="12.75">
       <c r="N650" s="90"/>
     </row>
-    <row r="651">
+    <row r="651" spans="14:14" ht="12.75">
       <c r="N651" s="90"/>
     </row>
-    <row r="652">
+    <row r="652" spans="14:14" ht="12.75">
       <c r="N652" s="90"/>
     </row>
-    <row r="653">
+    <row r="653" spans="14:14" ht="12.75">
       <c r="N653" s="90"/>
     </row>
-    <row r="654">
+    <row r="654" spans="14:14" ht="12.75">
       <c r="N654" s="90"/>
     </row>
-    <row r="655">
+    <row r="655" spans="14:14" ht="12.75">
       <c r="N655" s="90"/>
     </row>
-    <row r="656">
+    <row r="656" spans="14:14" ht="12.75">
       <c r="N656" s="90"/>
     </row>
-    <row r="657">
+    <row r="657" spans="14:14" ht="12.75">
       <c r="N657" s="90"/>
     </row>
-    <row r="658">
+    <row r="658" spans="14:14" ht="12.75">
       <c r="N658" s="90"/>
     </row>
-    <row r="659">
+    <row r="659" spans="14:14" ht="12.75">
       <c r="N659" s="90"/>
     </row>
-    <row r="660">
+    <row r="660" spans="14:14" ht="12.75">
       <c r="N660" s="90"/>
     </row>
-    <row r="661">
+    <row r="661" spans="14:14" ht="12.75">
       <c r="N661" s="90"/>
     </row>
-    <row r="662">
+    <row r="662" spans="14:14" ht="12.75">
       <c r="N662" s="90"/>
     </row>
-    <row r="663">
+    <row r="663" spans="14:14" ht="12.75">
       <c r="N663" s="90"/>
     </row>
-    <row r="664">
+    <row r="664" spans="14:14" ht="12.75">
       <c r="N664" s="90"/>
     </row>
-    <row r="665">
+    <row r="665" spans="14:14" ht="12.75">
       <c r="N665" s="90"/>
     </row>
-    <row r="666">
+    <row r="666" spans="14:14" ht="12.75">
       <c r="N666" s="90"/>
     </row>
-    <row r="667">
+    <row r="667" spans="14:14" ht="12.75">
       <c r="N667" s="90"/>
     </row>
-    <row r="668">
+    <row r="668" spans="14:14" ht="12.75">
       <c r="N668" s="90"/>
     </row>
-    <row r="669">
+    <row r="669" spans="14:14" ht="12.75">
       <c r="N669" s="90"/>
     </row>
-    <row r="670">
+    <row r="670" spans="14:14" ht="12.75">
       <c r="N670" s="90"/>
     </row>
-    <row r="671">
+    <row r="671" spans="14:14" ht="12.75">
       <c r="N671" s="90"/>
     </row>
-    <row r="672">
+    <row r="672" spans="14:14" ht="12.75">
       <c r="N672" s="90"/>
     </row>
-    <row r="673">
+    <row r="673" spans="14:14" ht="12.75">
       <c r="N673" s="90"/>
     </row>
-    <row r="674">
+    <row r="674" spans="14:14" ht="12.75">
       <c r="N674" s="90"/>
     </row>
-    <row r="675">
+    <row r="675" spans="14:14" ht="12.75">
       <c r="N675" s="90"/>
     </row>
-    <row r="676">
+    <row r="676" spans="14:14" ht="12.75">
       <c r="N676" s="90"/>
     </row>
-    <row r="677">
+    <row r="677" spans="14:14" ht="12.75">
       <c r="N677" s="90"/>
     </row>
-    <row r="678">
+    <row r="678" spans="14:14" ht="12.75">
       <c r="N678" s="90"/>
     </row>
-    <row r="679">
+    <row r="679" spans="14:14" ht="12.75">
       <c r="N679" s="90"/>
     </row>
-    <row r="680">
+    <row r="680" spans="14:14" ht="12.75">
       <c r="N680" s="90"/>
     </row>
-    <row r="681">
+    <row r="681" spans="14:14" ht="12.75">
       <c r="N681" s="90"/>
     </row>
-    <row r="682">
+    <row r="682" spans="14:14" ht="12.75">
       <c r="N682" s="90"/>
     </row>
-    <row r="683">
+    <row r="683" spans="14:14" ht="12.75">
       <c r="N683" s="90"/>
     </row>
-    <row r="684">
+    <row r="684" spans="14:14" ht="12.75">
       <c r="N684" s="90"/>
     </row>
-    <row r="685">
+    <row r="685" spans="14:14" ht="12.75">
       <c r="N685" s="90"/>
     </row>
-    <row r="686">
+    <row r="686" spans="14:14" ht="12.75">
       <c r="N686" s="90"/>
     </row>
-    <row r="687">
+    <row r="687" spans="14:14" ht="12.75">
       <c r="N687" s="90"/>
     </row>
-    <row r="688">
+    <row r="688" spans="14:14" ht="12.75">
       <c r="N688" s="90"/>
     </row>
-    <row r="689">
+    <row r="689" spans="14:14" ht="12.75">
       <c r="N689" s="90"/>
     </row>
-    <row r="690">
+    <row r="690" spans="14:14" ht="12.75">
       <c r="N690" s="90"/>
     </row>
-    <row r="691">
+    <row r="691" spans="14:14" ht="12.75">
       <c r="N691" s="90"/>
     </row>
-    <row r="692">
+    <row r="692" spans="14:14" ht="12.75">
       <c r="N692" s="90"/>
     </row>
-    <row r="693">
+    <row r="693" spans="14:14" ht="12.75">
       <c r="N693" s="90"/>
     </row>
-    <row r="694">
+    <row r="694" spans="14:14" ht="12.75">
       <c r="N694" s="90"/>
     </row>
-    <row r="695">
+    <row r="695" spans="14:14" ht="12.75">
       <c r="N695" s="90"/>
     </row>
-    <row r="696">
+    <row r="696" spans="14:14" ht="12.75">
       <c r="N696" s="90"/>
     </row>
-    <row r="697">
+    <row r="697" spans="14:14" ht="12.75">
       <c r="N697" s="90"/>
     </row>
-    <row r="698">
+    <row r="698" spans="14:14" ht="12.75">
       <c r="N698" s="90"/>
     </row>
-    <row r="699">
+    <row r="699" spans="14:14" ht="12.75">
       <c r="N699" s="90"/>
     </row>
-    <row r="700">
+    <row r="700" spans="14:14" ht="12.75">
       <c r="N700" s="90"/>
     </row>
-    <row r="701">
+    <row r="701" spans="14:14" ht="12.75">
       <c r="N701" s="90"/>
     </row>
-    <row r="702">
+    <row r="702" spans="14:14" ht="12.75">
       <c r="N702" s="90"/>
     </row>
-    <row r="703">
+    <row r="703" spans="14:14" ht="12.75">
       <c r="N703" s="90"/>
     </row>
-    <row r="704">
+    <row r="704" spans="14:14" ht="12.75">
       <c r="N704" s="90"/>
     </row>
-    <row r="705">
+    <row r="705" spans="14:14" ht="12.75">
       <c r="N705" s="90"/>
     </row>
-    <row r="706">
+    <row r="706" spans="14:14" ht="12.75">
       <c r="N706" s="90"/>
     </row>
-    <row r="707">
+    <row r="707" spans="14:14" ht="12.75">
       <c r="N707" s="90"/>
     </row>
-    <row r="708">
+    <row r="708" spans="14:14" ht="12.75">
       <c r="N708" s="90"/>
     </row>
-    <row r="709">
+    <row r="709" spans="14:14" ht="12.75">
       <c r="N709" s="90"/>
     </row>
-    <row r="710">
+    <row r="710" spans="14:14" ht="12.75">
       <c r="N710" s="90"/>
     </row>
-    <row r="711">
+    <row r="711" spans="14:14" ht="12.75">
       <c r="N711" s="90"/>
     </row>
-    <row r="712">
+    <row r="712" spans="14:14" ht="12.75">
       <c r="N712" s="90"/>
     </row>
-    <row r="713">
+    <row r="713" spans="14:14" ht="12.75">
       <c r="N713" s="90"/>
     </row>
-    <row r="714">
+    <row r="714" spans="14:14" ht="12.75">
       <c r="N714" s="90"/>
     </row>
-    <row r="715">
+    <row r="715" spans="14:14" ht="12.75">
       <c r="N715" s="90"/>
     </row>
-    <row r="716">
+    <row r="716" spans="14:14" ht="12.75">
       <c r="N716" s="90"/>
     </row>
-    <row r="717">
+    <row r="717" spans="14:14" ht="12.75">
       <c r="N717" s="90"/>
     </row>
-    <row r="718">
+    <row r="718" spans="14:14" ht="12.75">
       <c r="N718" s="90"/>
     </row>
-    <row r="719">
+    <row r="719" spans="14:14" ht="12.75">
       <c r="N719" s="90"/>
     </row>
-    <row r="720">
+    <row r="720" spans="14:14" ht="12.75">
       <c r="N720" s="90"/>
     </row>
-    <row r="721">
+    <row r="721" spans="14:14" ht="12.75">
       <c r="N721" s="90"/>
     </row>
-    <row r="722">
+    <row r="722" spans="14:14" ht="12.75">
       <c r="N722" s="90"/>
     </row>
-    <row r="723">
+    <row r="723" spans="14:14" ht="12.75">
       <c r="N723" s="90"/>
     </row>
-    <row r="724">
+    <row r="724" spans="14:14" ht="12.75">
       <c r="N724" s="90"/>
     </row>
-    <row r="725">
+    <row r="725" spans="14:14" ht="12.75">
       <c r="N725" s="90"/>
     </row>
-    <row r="726">
+    <row r="726" spans="14:14" ht="12.75">
       <c r="N726" s="90"/>
     </row>
-    <row r="727">
+    <row r="727" spans="14:14" ht="12.75">
       <c r="N727" s="90"/>
     </row>
-    <row r="728">
+    <row r="728" spans="14:14" ht="12.75">
       <c r="N728" s="90"/>
     </row>
-    <row r="729">
+    <row r="729" spans="14:14" ht="12.75">
       <c r="N729" s="90"/>
     </row>
-    <row r="730">
+    <row r="730" spans="14:14" ht="12.75">
       <c r="N730" s="90"/>
     </row>
-    <row r="731">
+    <row r="731" spans="14:14" ht="12.75">
       <c r="N731" s="90"/>
     </row>
-    <row r="732">
+    <row r="732" spans="14:14" ht="12.75">
       <c r="N732" s="90"/>
     </row>
-    <row r="733">
+    <row r="733" spans="14:14" ht="12.75">
       <c r="N733" s="90"/>
     </row>
-    <row r="734">
+    <row r="734" spans="14:14" ht="12.75">
       <c r="N734" s="90"/>
     </row>
-    <row r="735">
+    <row r="735" spans="14:14" ht="12.75">
       <c r="N735" s="90"/>
     </row>
-    <row r="736">
+    <row r="736" spans="14:14" ht="12.75">
       <c r="N736" s="90"/>
     </row>
-    <row r="737">
+    <row r="737" spans="14:14" ht="12.75">
       <c r="N737" s="90"/>
     </row>
-    <row r="738">
+    <row r="738" spans="14:14" ht="12.75">
       <c r="N738" s="90"/>
     </row>
-    <row r="739">
+    <row r="739" spans="14:14" ht="12.75">
       <c r="N739" s="90"/>
     </row>
-    <row r="740">
+    <row r="740" spans="14:14" ht="12.75">
       <c r="N740" s="90"/>
     </row>
-    <row r="741">
+    <row r="741" spans="14:14" ht="12.75">
       <c r="N741" s="90"/>
     </row>
-    <row r="742">
+    <row r="742" spans="14:14" ht="12.75">
       <c r="N742" s="90"/>
     </row>
-    <row r="743">
+    <row r="743" spans="14:14" ht="12.75">
       <c r="N743" s="90"/>
     </row>
-    <row r="744">
+    <row r="744" spans="14:14" ht="12.75">
       <c r="N744" s="90"/>
     </row>
-    <row r="745">
+    <row r="745" spans="14:14" ht="12.75">
       <c r="N745" s="90"/>
     </row>
-    <row r="746">
+    <row r="746" spans="14:14" ht="12.75">
       <c r="N746" s="90"/>
     </row>
-    <row r="747">
+    <row r="747" spans="14:14" ht="12.75">
       <c r="N747" s="90"/>
     </row>
-    <row r="748">
+    <row r="748" spans="14:14" ht="12.75">
       <c r="N748" s="90"/>
     </row>
-    <row r="749">
+    <row r="749" spans="14:14" ht="12.75">
       <c r="N749" s="90"/>
     </row>
-    <row r="750">
+    <row r="750" spans="14:14" ht="12.75">
       <c r="N750" s="90"/>
     </row>
-    <row r="751">
+    <row r="751" spans="14:14" ht="12.75">
       <c r="N751" s="90"/>
     </row>
-    <row r="752">
+    <row r="752" spans="14:14" ht="12.75">
       <c r="N752" s="90"/>
     </row>
-    <row r="753">
+    <row r="753" spans="14:14" ht="12.75">
       <c r="N753" s="90"/>
     </row>
-    <row r="754">
+    <row r="754" spans="14:14" ht="12.75">
       <c r="N754" s="90"/>
     </row>
-    <row r="755">
+    <row r="755" spans="14:14" ht="12.75">
       <c r="N755" s="90"/>
     </row>
-    <row r="756">
+    <row r="756" spans="14:14" ht="12.75">
       <c r="N756" s="90"/>
     </row>
-    <row r="757">
+    <row r="757" spans="14:14" ht="12.75">
       <c r="N757" s="90"/>
     </row>
-    <row r="758">
+    <row r="758" spans="14:14" ht="12.75">
       <c r="N758" s="90"/>
     </row>
-    <row r="759">
+    <row r="759" spans="14:14" ht="12.75">
       <c r="N759" s="90"/>
     </row>
-    <row r="760">
+    <row r="760" spans="14:14" ht="12.75">
       <c r="N760" s="90"/>
     </row>
-    <row r="761">
+    <row r="761" spans="14:14" ht="12.75">
       <c r="N761" s="90"/>
     </row>
-    <row r="762">
+    <row r="762" spans="14:14" ht="12.75">
       <c r="N762" s="90"/>
     </row>
-    <row r="763">
+    <row r="763" spans="14:14" ht="12.75">
       <c r="N763" s="90"/>
     </row>
-    <row r="764">
+    <row r="764" spans="14:14" ht="12.75">
       <c r="N764" s="90"/>
     </row>
-    <row r="765">
+    <row r="765" spans="14:14" ht="12.75">
       <c r="N765" s="90"/>
     </row>
-    <row r="766">
+    <row r="766" spans="14:14" ht="12.75">
       <c r="N766" s="90"/>
     </row>
-    <row r="767">
+    <row r="767" spans="14:14" ht="12.75">
       <c r="N767" s="90"/>
     </row>
-    <row r="768">
+    <row r="768" spans="14:14" ht="12.75">
       <c r="N768" s="90"/>
     </row>
-    <row r="769">
+    <row r="769" spans="14:14" ht="12.75">
       <c r="N769" s="90"/>
     </row>
-    <row r="770">
+    <row r="770" spans="14:14" ht="12.75">
       <c r="N770" s="90"/>
     </row>
-    <row r="771">
+    <row r="771" spans="14:14" ht="12.75">
       <c r="N771" s="90"/>
     </row>
-    <row r="772">
+    <row r="772" spans="14:14" ht="12.75">
       <c r="N772" s="90"/>
     </row>
-    <row r="773">
+    <row r="773" spans="14:14" ht="12.75">
       <c r="N773" s="90"/>
     </row>
-    <row r="774">
+    <row r="774" spans="14:14" ht="12.75">
       <c r="N774" s="90"/>
     </row>
-    <row r="775">
+    <row r="775" spans="14:14" ht="12.75">
       <c r="N775" s="90"/>
     </row>
-    <row r="776">
+    <row r="776" spans="14:14" ht="12.75">
       <c r="N776" s="90"/>
     </row>
-    <row r="777">
+    <row r="777" spans="14:14" ht="12.75">
       <c r="N777" s="90"/>
     </row>
-    <row r="778">
+    <row r="778" spans="14:14" ht="12.75">
       <c r="N778" s="90"/>
     </row>
-    <row r="779">
+    <row r="779" spans="14:14" ht="12.75">
       <c r="N779" s="90"/>
     </row>
-    <row r="780">
+    <row r="780" spans="14:14" ht="12.75">
       <c r="N780" s="90"/>
     </row>
-    <row r="781">
+    <row r="781" spans="14:14" ht="12.75">
       <c r="N781" s="90"/>
     </row>
-    <row r="782">
+    <row r="782" spans="14:14" ht="12.75">
       <c r="N782" s="90"/>
     </row>
-    <row r="783">
+    <row r="783" spans="14:14" ht="12.75">
       <c r="N783" s="90"/>
     </row>
-    <row r="784">
+    <row r="784" spans="14:14" ht="12.75">
       <c r="N784" s="90"/>
     </row>
-    <row r="785">
+    <row r="785" spans="14:14" ht="12.75">
       <c r="N785" s="90"/>
     </row>
-    <row r="786">
+    <row r="786" spans="14:14" ht="12.75">
       <c r="N786" s="90"/>
     </row>
-    <row r="787">
+    <row r="787" spans="14:14" ht="12.75">
       <c r="N787" s="90"/>
     </row>
-    <row r="788">
+    <row r="788" spans="14:14" ht="12.75">
       <c r="N788" s="90"/>
     </row>
-    <row r="789">
+    <row r="789" spans="14:14" ht="12.75">
       <c r="N789" s="90"/>
     </row>
-    <row r="790">
+    <row r="790" spans="14:14" ht="12.75">
       <c r="N790" s="90"/>
     </row>
-    <row r="791">
+    <row r="791" spans="14:14" ht="12.75">
       <c r="N791" s="90"/>
     </row>
-    <row r="792">
+    <row r="792" spans="14:14" ht="12.75">
       <c r="N792" s="90"/>
     </row>
-    <row r="793">
+    <row r="793" spans="14:14" ht="12.75">
       <c r="N793" s="90"/>
     </row>
-    <row r="794">
+    <row r="794" spans="14:14" ht="12.75">
       <c r="N794" s="90"/>
     </row>
-    <row r="795">
+    <row r="795" spans="14:14" ht="12.75">
       <c r="N795" s="90"/>
     </row>
-    <row r="796">
+    <row r="796" spans="14:14" ht="12.75">
       <c r="N796" s="90"/>
     </row>
-    <row r="797">
+    <row r="797" spans="14:14" ht="12.75">
       <c r="N797" s="90"/>
     </row>
-    <row r="798">
+    <row r="798" spans="14:14" ht="12.75">
       <c r="N798" s="90"/>
     </row>
-    <row r="799">
+    <row r="799" spans="14:14" ht="12.75">
       <c r="N799" s="90"/>
     </row>
-    <row r="800">
+    <row r="800" spans="14:14" ht="12.75">
       <c r="N800" s="90"/>
     </row>
-    <row r="801">
+    <row r="801" spans="14:14" ht="12.75">
       <c r="N801" s="90"/>
     </row>
-    <row r="802">
+    <row r="802" spans="14:14" ht="12.75">
       <c r="N802" s="90"/>
     </row>
-    <row r="803">
+    <row r="803" spans="14:14" ht="12.75">
       <c r="N803" s="90"/>
     </row>
-    <row r="804">
+    <row r="804" spans="14:14" ht="12.75">
       <c r="N804" s="90"/>
     </row>
-    <row r="805">
+    <row r="805" spans="14:14" ht="12.75">
       <c r="N805" s="90"/>
     </row>
-    <row r="806">
+    <row r="806" spans="14:14" ht="12.75">
       <c r="N806" s="90"/>
     </row>
-    <row r="807">
+    <row r="807" spans="14:14" ht="12.75">
       <c r="N807" s="90"/>
     </row>
-    <row r="808">
+    <row r="808" spans="14:14" ht="12.75">
       <c r="N808" s="90"/>
     </row>
-    <row r="809">
+    <row r="809" spans="14:14" ht="12.75">
       <c r="N809" s="90"/>
     </row>
-    <row r="810">
+    <row r="810" spans="14:14" ht="12.75">
       <c r="N810" s="90"/>
     </row>
-    <row r="811">
+    <row r="811" spans="14:14" ht="12.75">
       <c r="N811" s="90"/>
     </row>
-    <row r="812">
+    <row r="812" spans="14:14" ht="12.75">
       <c r="N812" s="90"/>
     </row>
-    <row r="813">
+    <row r="813" spans="14:14" ht="12.75">
       <c r="N813" s="90"/>
     </row>
-    <row r="814">
+    <row r="814" spans="14:14" ht="12.75">
       <c r="N814" s="90"/>
     </row>
-    <row r="815">
+    <row r="815" spans="14:14" ht="12.75">
       <c r="N815" s="90"/>
     </row>
-    <row r="816">
+    <row r="816" spans="14:14" ht="12.75">
       <c r="N816" s="90"/>
     </row>
-    <row r="817">
+    <row r="817" spans="14:14" ht="12.75">
       <c r="N817" s="90"/>
     </row>
-    <row r="818">
+    <row r="818" spans="14:14" ht="12.75">
       <c r="N818" s="90"/>
     </row>
-    <row r="819">
+    <row r="819" spans="14:14" ht="12.75">
       <c r="N819" s="90"/>
     </row>
-    <row r="820">
+    <row r="820" spans="14:14" ht="12.75">
       <c r="N820" s="90"/>
     </row>
-    <row r="821">
+    <row r="821" spans="14:14" ht="12.75">
       <c r="N821" s="90"/>
     </row>
-    <row r="822">
+    <row r="822" spans="14:14" ht="12.75">
       <c r="N822" s="90"/>
     </row>
-    <row r="823">
+    <row r="823" spans="14:14" ht="12.75">
       <c r="N823" s="90"/>
     </row>
-    <row r="824">
+    <row r="824" spans="14:14" ht="12.75">
       <c r="N824" s="90"/>
     </row>
-    <row r="825">
+    <row r="825" spans="14:14" ht="12.75">
       <c r="N825" s="90"/>
     </row>
-    <row r="826">
+    <row r="826" spans="14:14" ht="12.75">
       <c r="N826" s="90"/>
     </row>
-    <row r="827">
+    <row r="827" spans="14:14" ht="12.75">
       <c r="N827" s="90"/>
     </row>
-    <row r="828">
+    <row r="828" spans="14:14" ht="12.75">
       <c r="N828" s="90"/>
     </row>
-    <row r="829">
+    <row r="829" spans="14:14" ht="12.75">
       <c r="N829" s="90"/>
     </row>
-    <row r="830">
+    <row r="830" spans="14:14" ht="12.75">
       <c r="N830" s="90"/>
     </row>
-    <row r="831">
+    <row r="831" spans="14:14" ht="12.75">
       <c r="N831" s="90"/>
     </row>
-    <row r="832">
+    <row r="832" spans="14:14" ht="12.75">
       <c r="N832" s="90"/>
     </row>
-    <row r="833">
+    <row r="833" spans="14:14" ht="12.75">
       <c r="N833" s="90"/>
     </row>
-    <row r="834">
+    <row r="834" spans="14:14" ht="12.75">
       <c r="N834" s="90"/>
     </row>
-    <row r="835">
+    <row r="835" spans="14:14" ht="12.75">
       <c r="N835" s="90"/>
     </row>
-    <row r="836">
+    <row r="836" spans="14:14" ht="12.75">
       <c r="N836" s="90"/>
     </row>
-    <row r="837">
+    <row r="837" spans="14:14" ht="12.75">
       <c r="N837" s="90"/>
     </row>
-    <row r="838">
+    <row r="838" spans="14:14" ht="12.75">
       <c r="N838" s="90"/>
     </row>
-    <row r="839">
+    <row r="839" spans="14:14" ht="12.75">
       <c r="N839" s="90"/>
     </row>
-    <row r="840">
+    <row r="840" spans="14:14" ht="12.75">
       <c r="N840" s="90"/>
     </row>
-    <row r="841">
+    <row r="841" spans="14:14" ht="12.75">
       <c r="N841" s="90"/>
     </row>
-    <row r="842">
+    <row r="842" spans="14:14" ht="12.75">
       <c r="N842" s="90"/>
     </row>
-    <row r="843">
+    <row r="843" spans="14:14" ht="12.75">
       <c r="N843" s="90"/>
     </row>
-    <row r="844">
+    <row r="844" spans="14:14" ht="12.75">
       <c r="N844" s="90"/>
     </row>
-    <row r="845">
+    <row r="845" spans="14:14" ht="12.75">
       <c r="N845" s="90"/>
     </row>
-    <row r="846">
+    <row r="846" spans="14:14" ht="12.75">
       <c r="N846" s="90"/>
     </row>
-    <row r="847">
+    <row r="847" spans="14:14" ht="12.75">
       <c r="N847" s="90"/>
     </row>
-    <row r="848">
+    <row r="848" spans="14:14" ht="12.75">
       <c r="N848" s="90"/>
     </row>
-    <row r="849">
+    <row r="849" spans="14:14" ht="12.75">
       <c r="N849" s="90"/>
     </row>
-    <row r="850">
+    <row r="850" spans="14:14" ht="12.75">
       <c r="N850" s="90"/>
     </row>
-    <row r="851">
+    <row r="851" spans="14:14" ht="12.75">
       <c r="N851" s="90"/>
     </row>
-    <row r="852">
+    <row r="852" spans="14:14" ht="12.75">
       <c r="N852" s="90"/>
     </row>
-    <row r="853">
+    <row r="853" spans="14:14" ht="12.75">
       <c r="N853" s="90"/>
     </row>
-    <row r="854">
+    <row r="854" spans="14:14" ht="12.75">
       <c r="N854" s="90"/>
     </row>
-    <row r="855">
+    <row r="855" spans="14:14" ht="12.75">
       <c r="N855" s="90"/>
     </row>
-    <row r="856">
+    <row r="856" spans="14:14" ht="12.75">
       <c r="N856" s="90"/>
     </row>
-    <row r="857">
+    <row r="857" spans="14:14" ht="12.75">
       <c r="N857" s="90"/>
     </row>
-    <row r="858">
+    <row r="858" spans="14:14" ht="12.75">
       <c r="N858" s="90"/>
     </row>
-    <row r="859">
+    <row r="859" spans="14:14" ht="12.75">
       <c r="N859" s="90"/>
     </row>
-    <row r="860">
+    <row r="860" spans="14:14" ht="12.75">
       <c r="N860" s="90"/>
     </row>
-    <row r="861">
+    <row r="861" spans="14:14" ht="12.75">
       <c r="N861" s="90"/>
     </row>
-    <row r="862">
+    <row r="862" spans="14:14" ht="12.75">
       <c r="N862" s="90"/>
     </row>
-    <row r="863">
+    <row r="863" spans="14:14" ht="12.75">
       <c r="N863" s="90"/>
     </row>
-    <row r="864">
+    <row r="864" spans="14:14" ht="12.75">
       <c r="N864" s="90"/>
     </row>
-    <row r="865">
+    <row r="865" spans="14:14" ht="12.75">
       <c r="N865" s="90"/>
     </row>
-    <row r="866">
+    <row r="866" spans="14:14" ht="12.75">
       <c r="N866" s="90"/>
     </row>
-    <row r="867">
+    <row r="867" spans="14:14" ht="12.75">
       <c r="N867" s="90"/>
     </row>
-    <row r="868">
+    <row r="868" spans="14:14" ht="12.75">
       <c r="N868" s="90"/>
     </row>
-    <row r="869">
+    <row r="869" spans="14:14" ht="12.75">
       <c r="N869" s="90"/>
     </row>
-    <row r="870">
+    <row r="870" spans="14:14" ht="12.75">
       <c r="N870" s="90"/>
     </row>
-    <row r="871">
+    <row r="871" spans="14:14" ht="12.75">
       <c r="N871" s="90"/>
     </row>
-    <row r="872">
+    <row r="872" spans="14:14" ht="12.75">
       <c r="N872" s="90"/>
     </row>
-    <row r="873">
+    <row r="873" spans="14:14" ht="12.75">
       <c r="N873" s="90"/>
     </row>
-    <row r="874">
+    <row r="874" spans="14:14" ht="12.75">
       <c r="N874" s="90"/>
     </row>
-    <row r="875">
+    <row r="875" spans="14:14" ht="12.75">
       <c r="N875" s="90"/>
     </row>
-    <row r="876">
+    <row r="876" spans="14:14" ht="12.75">
       <c r="N876" s="90"/>
     </row>
-    <row r="877">
+    <row r="877" spans="14:14" ht="12.75">
       <c r="N877" s="90"/>
     </row>
-    <row r="878">
+    <row r="878" spans="14:14" ht="12.75">
       <c r="N878" s="90"/>
     </row>
-    <row r="879">
+    <row r="879" spans="14:14" ht="12.75">
       <c r="N879" s="90"/>
     </row>
-    <row r="880">
+    <row r="880" spans="14:14" ht="12.75">
       <c r="N880" s="90"/>
     </row>
-    <row r="881">
+    <row r="881" spans="14:14" ht="12.75">
       <c r="N881" s="90"/>
     </row>
-    <row r="882">
+    <row r="882" spans="14:14" ht="12.75">
       <c r="N882" s="90"/>
     </row>
-    <row r="883">
+    <row r="883" spans="14:14" ht="12.75">
       <c r="N883" s="90"/>
     </row>
-    <row r="884">
+    <row r="884" spans="14:14" ht="12.75">
       <c r="N884" s="90"/>
     </row>
-    <row r="885">
+    <row r="885" spans="14:14" ht="12.75">
       <c r="N885" s="90"/>
     </row>
-    <row r="886">
+    <row r="886" spans="14:14" ht="12.75">
       <c r="N886" s="90"/>
     </row>
-    <row r="887">
+    <row r="887" spans="14:14" ht="12.75">
       <c r="N887" s="90"/>
     </row>
-    <row r="888">
+    <row r="888" spans="14:14" ht="12.75">
       <c r="N888" s="90"/>
     </row>
-    <row r="889">
+    <row r="889" spans="14:14" ht="12.75">
       <c r="N889" s="90"/>
     </row>
-    <row r="890">
+    <row r="890" spans="14:14" ht="12.75">
       <c r="N890" s="90"/>
     </row>
-    <row r="891">
+    <row r="891" spans="14:14" ht="12.75">
       <c r="N891" s="90"/>
     </row>
-    <row r="892">
+    <row r="892" spans="14:14" ht="12.75">
       <c r="N892" s="90"/>
     </row>
-    <row r="893">
+    <row r="893" spans="14:14" ht="12.75">
       <c r="N893" s="90"/>
     </row>
-    <row r="894">
+    <row r="894" spans="14:14" ht="12.75">
       <c r="N894" s="90"/>
     </row>
-    <row r="895">
+    <row r="895" spans="14:14" ht="12.75">
       <c r="N895" s="90"/>
     </row>
-    <row r="896">
+    <row r="896" spans="14:14" ht="12.75">
       <c r="N896" s="90"/>
     </row>
-    <row r="897">
+    <row r="897" spans="14:14" ht="12.75">
       <c r="N897" s="90"/>
     </row>
-    <row r="898">
+    <row r="898" spans="14:14" ht="12.75">
       <c r="N898" s="90"/>
     </row>
-    <row r="899">
+    <row r="899" spans="14:14" ht="12.75">
       <c r="N899" s="90"/>
     </row>
-    <row r="900">
+    <row r="900" spans="14:14" ht="12.75">
       <c r="N900" s="90"/>
     </row>
-    <row r="901">
+    <row r="901" spans="14:14" ht="12.75">
       <c r="N901" s="90"/>
     </row>
-    <row r="902">
+    <row r="902" spans="14:14" ht="12.75">
       <c r="N902" s="90"/>
     </row>
-    <row r="903">
+    <row r="903" spans="14:14" ht="12.75">
       <c r="N903" s="90"/>
     </row>
-    <row r="904">
+    <row r="904" spans="14:14" ht="12.75">
       <c r="N904" s="90"/>
     </row>
-    <row r="905">
+    <row r="905" spans="14:14" ht="12.75">
       <c r="N905" s="90"/>
     </row>
-    <row r="906">
+    <row r="906" spans="14:14" ht="12.75">
       <c r="N906" s="90"/>
     </row>
-    <row r="907">
+    <row r="907" spans="14:14" ht="12.75">
       <c r="N907" s="90"/>
     </row>
-    <row r="908">
+    <row r="908" spans="14:14" ht="12.75">
       <c r="N908" s="90"/>
     </row>
-    <row r="909">
+    <row r="909" spans="14:14" ht="12.75">
       <c r="N909" s="90"/>
     </row>
-    <row r="910">
+    <row r="910" spans="14:14" ht="12.75">
       <c r="N910" s="90"/>
     </row>
-    <row r="911">
+    <row r="911" spans="14:14" ht="12.75">
       <c r="N911" s="90"/>
     </row>
-    <row r="912">
+    <row r="912" spans="14:14" ht="12.75">
       <c r="N912" s="90"/>
     </row>
-    <row r="913">
+    <row r="913" spans="14:14" ht="12.75">
       <c r="N913" s="90"/>
     </row>
-    <row r="914">
+    <row r="914" spans="14:14" ht="12.75">
       <c r="N914" s="90"/>
     </row>
-    <row r="915">
+    <row r="915" spans="14:14" ht="12.75">
       <c r="N915" s="90"/>
     </row>
-    <row r="916">
+    <row r="916" spans="14:14" ht="12.75">
       <c r="N916" s="90"/>
     </row>
-    <row r="917">
+    <row r="917" spans="14:14" ht="12.75">
       <c r="N917" s="90"/>
     </row>
-    <row r="918">
+    <row r="918" spans="14:14" ht="12.75">
       <c r="N918" s="90"/>
     </row>
-    <row r="919">
+    <row r="919" spans="14:14" ht="12.75">
       <c r="N919" s="90"/>
     </row>
-    <row r="920">
+    <row r="920" spans="14:14" ht="12.75">
       <c r="N920" s="90"/>
     </row>
-    <row r="921">
+    <row r="921" spans="14:14" ht="12.75">
       <c r="N921" s="90"/>
     </row>
-    <row r="922">
+    <row r="922" spans="14:14" ht="12.75">
       <c r="N922" s="90"/>
     </row>
-    <row r="923">
+    <row r="923" spans="14:14" ht="12.75">
       <c r="N923" s="90"/>
     </row>
-    <row r="924">
+    <row r="924" spans="14:14" ht="12.75">
       <c r="N924" s="90"/>
     </row>
-    <row r="925">
+    <row r="925" spans="14:14" ht="12.75">
       <c r="N925" s="90"/>
     </row>
-    <row r="926">
+    <row r="926" spans="14:14" ht="12.75">
       <c r="N926" s="90"/>
     </row>
-    <row r="927">
+    <row r="927" spans="14:14" ht="12.75">
       <c r="N927" s="90"/>
     </row>
-    <row r="928">
+    <row r="928" spans="14:14" ht="12.75">
       <c r="N928" s="90"/>
     </row>
-    <row r="929">
+    <row r="929" spans="14:14" ht="12.75">
       <c r="N929" s="90"/>
     </row>
-    <row r="930">
+    <row r="930" spans="14:14" ht="12.75">
       <c r="N930" s="90"/>
     </row>
-    <row r="931">
+    <row r="931" spans="14:14" ht="12.75">
       <c r="N931" s="90"/>
     </row>
-    <row r="932">
+    <row r="932" spans="14:14" ht="12.75">
       <c r="N932" s="90"/>
     </row>
-    <row r="933">
+    <row r="933" spans="14:14" ht="12.75">
       <c r="N933" s="90"/>
     </row>
-    <row r="934">
+    <row r="934" spans="14:14" ht="12.75">
       <c r="N934" s="90"/>
     </row>
-    <row r="935">
+    <row r="935" spans="14:14" ht="12.75">
       <c r="N935" s="90"/>
     </row>
-    <row r="936">
+    <row r="936" spans="14:14" ht="12.75">
       <c r="N936" s="90"/>
     </row>
-    <row r="937">
+    <row r="937" spans="14:14" ht="12.75">
       <c r="N937" s="90"/>
     </row>
-    <row r="938">
+    <row r="938" spans="14:14" ht="12.75">
       <c r="N938" s="90"/>
     </row>
-    <row r="939">
+    <row r="939" spans="14:14" ht="12.75">
       <c r="N939" s="90"/>
     </row>
-    <row r="940">
+    <row r="940" spans="14:14" ht="12.75">
       <c r="N940" s="90"/>
     </row>
-    <row r="941">
+    <row r="941" spans="14:14" ht="12.75">
       <c r="N941" s="90"/>
     </row>
-    <row r="942">
+    <row r="942" spans="14:14" ht="12.75">
       <c r="N942" s="90"/>
     </row>
-    <row r="943">
+    <row r="943" spans="14:14" ht="12.75">
       <c r="N943" s="90"/>
     </row>
-    <row r="944">
+    <row r="944" spans="14:14" ht="12.75">
       <c r="N944" s="90"/>
     </row>
-    <row r="945">
+    <row r="945" spans="14:14" ht="12.75">
       <c r="N945" s="90"/>
     </row>
-    <row r="946">
+    <row r="946" spans="14:14" ht="12.75">
       <c r="N946" s="90"/>
     </row>
-    <row r="947">
+    <row r="947" spans="14:14" ht="12.75">
       <c r="N947" s="90"/>
     </row>
-    <row r="948">
+    <row r="948" spans="14:14" ht="12.75">
       <c r="N948" s="90"/>
     </row>
-    <row r="949">
+    <row r="949" spans="14:14" ht="12.75">
       <c r="N949" s="90"/>
     </row>
-    <row r="950">
+    <row r="950" spans="14:14" ht="12.75">
       <c r="N950" s="90"/>
     </row>
-    <row r="951">
+    <row r="951" spans="14:14" ht="12.75">
       <c r="N951" s="90"/>
     </row>
-    <row r="952">
+    <row r="952" spans="14:14" ht="12.75">
       <c r="N952" s="90"/>
     </row>
-    <row r="953">
+    <row r="953" spans="14:14" ht="12.75">
       <c r="N953" s="90"/>
     </row>
-    <row r="954">
+    <row r="954" spans="14:14" ht="12.75">
       <c r="N954" s="90"/>
     </row>
-    <row r="955">
+    <row r="955" spans="14:14" ht="12.75">
       <c r="N955" s="90"/>
     </row>
-    <row r="956">
+    <row r="956" spans="14:14" ht="12.75">
       <c r="N956" s="90"/>
     </row>
-    <row r="957">
+    <row r="957" spans="14:14" ht="12.75">
       <c r="N957" s="90"/>
     </row>
-    <row r="958">
+    <row r="958" spans="14:14" ht="12.75">
       <c r="N958" s="90"/>
     </row>
-    <row r="959">
+    <row r="959" spans="14:14" ht="12.75">
       <c r="N959" s="90"/>
     </row>
-    <row r="960">
+    <row r="960" spans="14:14" ht="12.75">
       <c r="N960" s="90"/>
     </row>
-    <row r="961">
+    <row r="961" spans="14:14" ht="12.75">
       <c r="N961" s="90"/>
     </row>
-    <row r="962">
+    <row r="962" spans="14:14" ht="12.75">
       <c r="N962" s="90"/>
     </row>
-    <row r="963">
+    <row r="963" spans="14:14" ht="12.75">
       <c r="N963" s="90"/>
     </row>
-    <row r="964">
+    <row r="964" spans="14:14" ht="12.75">
       <c r="N964" s="90"/>
     </row>
-    <row r="965">
+    <row r="965" spans="14:14" ht="12.75">
       <c r="N965" s="90"/>
     </row>
-    <row r="966">
+    <row r="966" spans="14:14" ht="12.75">
       <c r="N966" s="90"/>
     </row>
-    <row r="967">
+    <row r="967" spans="14:14" ht="12.75">
       <c r="N967" s="90"/>
     </row>
-    <row r="968">
+    <row r="968" spans="14:14" ht="12.75">
       <c r="N968" s="90"/>
     </row>
-    <row r="969">
+    <row r="969" spans="14:14" ht="12.75">
       <c r="N969" s="90"/>
     </row>
-    <row r="970">
+    <row r="970" spans="14:14" ht="12.75">
       <c r="N970" s="90"/>
     </row>
-    <row r="971">
+    <row r="971" spans="14:14" ht="12.75">
       <c r="N971" s="90"/>
     </row>
-    <row r="972">
+    <row r="972" spans="14:14" ht="12.75">
       <c r="N972" s="90"/>
     </row>
-    <row r="973">
+    <row r="973" spans="14:14" ht="12.75">
       <c r="N973" s="90"/>
     </row>
-    <row r="974">
+    <row r="974" spans="14:14" ht="12.75">
       <c r="N974" s="90"/>
     </row>
-    <row r="975">
+    <row r="975" spans="14:14" ht="12.75">
       <c r="N975" s="90"/>
     </row>
-    <row r="976">
+    <row r="976" spans="14:14" ht="12.75">
       <c r="N976" s="90"/>
     </row>
-    <row r="977">
+    <row r="977" spans="14:14" ht="12.75">
       <c r="N977" s="90"/>
     </row>
-    <row r="978">
+    <row r="978" spans="14:14" ht="12.75">
       <c r="N978" s="90"/>
     </row>
-    <row r="979">
+    <row r="979" spans="14:14" ht="12.75">
       <c r="N979" s="90"/>
     </row>
-    <row r="980">
+    <row r="980" spans="14:14" ht="12.75">
       <c r="N980" s="90"/>
     </row>
-    <row r="981">
+    <row r="981" spans="14:14" ht="12.75">
       <c r="N981" s="90"/>
     </row>
-    <row r="982">
+    <row r="982" spans="14:14" ht="12.75">
       <c r="N982" s="90"/>
     </row>
-    <row r="983">
+    <row r="983" spans="14:14" ht="12.75">
       <c r="N983" s="90"/>
     </row>
-    <row r="984">
+    <row r="984" spans="14:14" ht="12.75">
       <c r="N984" s="90"/>
     </row>
-    <row r="985">
+    <row r="985" spans="14:14" ht="12.75">
       <c r="N985" s="90"/>
     </row>
-    <row r="986">
+    <row r="986" spans="14:14" ht="12.75">
       <c r="N986" s="90"/>
     </row>
-    <row r="987">
+    <row r="987" spans="14:14" ht="12.75">
       <c r="N987" s="90"/>
     </row>
-    <row r="988">
+    <row r="988" spans="14:14" ht="12.75">
       <c r="N988" s="90"/>
     </row>
-    <row r="989">
+    <row r="989" spans="14:14" ht="12.75">
       <c r="N989" s="90"/>
     </row>
-    <row r="990">
+    <row r="990" spans="14:14" ht="12.75">
       <c r="N990" s="90"/>
     </row>
-    <row r="991">
+    <row r="991" spans="14:14" ht="12.75">
       <c r="N991" s="90"/>
     </row>
-    <row r="992">
+    <row r="992" spans="14:14" ht="12.75">
       <c r="N992" s="90"/>
     </row>
-    <row r="993">
+    <row r="993" spans="14:14" ht="12.75">
       <c r="N993" s="90"/>
     </row>
-    <row r="994">
+    <row r="994" spans="14:14" ht="12.75">
       <c r="N994" s="90"/>
     </row>
-    <row r="995">
+    <row r="995" spans="14:14" ht="12.75">
       <c r="N995" s="90"/>
     </row>
-    <row r="996">
+    <row r="996" spans="14:14" ht="12.75">
       <c r="N996" s="90"/>
     </row>
-    <row r="997">
+    <row r="997" spans="14:14" ht="12.75">
       <c r="N997" s="90"/>
     </row>
-    <row r="998">
+    <row r="998" spans="14:14" ht="12.75">
       <c r="N998" s="90"/>
     </row>
-    <row r="999">
+    <row r="999" spans="14:14" ht="12.75">
       <c r="N999" s="90"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="14:14" ht="12.75">
       <c r="N1000" s="90"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="14:14" ht="12.75">
       <c r="N1001" s="90"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="14:14" ht="12.75">
       <c r="N1002" s="90"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="14:14" ht="12.75">
       <c r="N1003" s="90"/>
     </row>
-    <row r="1004">
+    <row r="1004" spans="14:14" ht="12.75">
       <c r="N1004" s="90"/>
     </row>
-    <row r="1005">
+    <row r="1005" spans="14:14" ht="12.75">
       <c r="N1005" s="90"/>
     </row>
-    <row r="1006">
+    <row r="1006" spans="14:14" ht="12.75">
       <c r="N1006" s="90"/>
     </row>
-    <row r="1007">
+    <row r="1007" spans="14:14" ht="12.75">
       <c r="N1007" s="90"/>
     </row>
-    <row r="1008">
+    <row r="1008" spans="14:14" ht="12.75">
       <c r="N1008" s="90"/>
     </row>
-    <row r="1009">
+    <row r="1009" spans="14:14" ht="12.75">
       <c r="N1009" s="90"/>
     </row>
-    <row r="1010">
+    <row r="1010" spans="14:14" ht="12.75">
       <c r="N1010" s="90"/>
     </row>
-    <row r="1011">
+    <row r="1011" spans="14:14" ht="12.75">
       <c r="N1011" s="90"/>
     </row>
-    <row r="1012">
+    <row r="1012" spans="14:14" ht="12.75">
       <c r="N1012" s="90"/>
     </row>
-    <row r="1013">
+    <row r="1013" spans="14:14" ht="12.75">
       <c r="N1013" s="90"/>
     </row>
-    <row r="1014">
+    <row r="1014" spans="14:14" ht="12.75">
       <c r="N1014" s="90"/>
     </row>
-    <row r="1015">
+    <row r="1015" spans="14:14" ht="12.75">
       <c r="N1015" s="90"/>
     </row>
-    <row r="1016">
+    <row r="1016" spans="14:14" ht="12.75">
       <c r="N1016" s="90"/>
     </row>
-    <row r="1017">
+    <row r="1017" spans="14:14" ht="12.75">
       <c r="N1017" s="90"/>
     </row>
-    <row r="1018">
+    <row r="1018" spans="14:14" ht="12.75">
       <c r="N1018" s="90"/>
     </row>
-    <row r="1019">
+    <row r="1019" spans="14:14" ht="12.75">
       <c r="N1019" s="90"/>
     </row>
-    <row r="1020">
+    <row r="1020" spans="14:14" ht="12.75">
       <c r="N1020" s="90"/>
     </row>
-    <row r="1021">
+    <row r="1021" spans="14:14" ht="12.75">
       <c r="N1021" s="90"/>
     </row>
-    <row r="1022">
+    <row r="1022" spans="14:14" ht="12.75">
       <c r="N1022" s="90"/>
     </row>
-    <row r="1023">
+    <row r="1023" spans="14:14" ht="12.75">
       <c r="N1023" s="90"/>
     </row>
-    <row r="1024">
+    <row r="1024" spans="14:14" ht="12.75">
       <c r="N1024" s="90"/>
     </row>
-    <row r="1025">
+    <row r="1025" spans="14:14" ht="12.75">
       <c r="N1025" s="90"/>
     </row>
-    <row r="1026">
+    <row r="1026" spans="14:14" ht="12.75">
       <c r="N1026" s="90"/>
     </row>
-    <row r="1027">
+    <row r="1027" spans="14:14" ht="12.75">
       <c r="N1027" s="90"/>
     </row>
-    <row r="1028">
+    <row r="1028" spans="14:14" ht="12.75">
       <c r="N1028" s="90"/>
     </row>
-    <row r="1029">
+    <row r="1029" spans="14:14" ht="12.75">
       <c r="N1029" s="90"/>
     </row>
-    <row r="1030">
+    <row r="1030" spans="14:14" ht="12.75">
       <c r="N1030" s="90"/>
     </row>
-    <row r="1031">
+    <row r="1031" spans="14:14" ht="12.75">
       <c r="N1031" s="90"/>
     </row>
-    <row r="1032">
+    <row r="1032" spans="14:14" ht="12.75">
       <c r="N1032" s="90"/>
     </row>
-    <row r="1033">
+    <row r="1033" spans="14:14" ht="12.75">
       <c r="N1033" s="90"/>
     </row>
-    <row r="1034">
+    <row r="1034" spans="14:14" ht="12.75">
       <c r="N1034" s="90"/>
     </row>
-    <row r="1035">
+    <row r="1035" spans="14:14" ht="12.75">
       <c r="N1035" s="90"/>
     </row>
-    <row r="1036">
+    <row r="1036" spans="14:14" ht="12.75">
       <c r="N1036" s="90"/>
     </row>
-    <row r="1037">
+    <row r="1037" spans="14:14" ht="12.75">
       <c r="N1037" s="90"/>
     </row>
-    <row r="1038">
+    <row r="1038" spans="14:14" ht="12.75">
       <c r="N1038" s="90"/>
     </row>
-    <row r="1039">
+    <row r="1039" spans="14:14" ht="12.75">
       <c r="N1039" s="90"/>
     </row>
-    <row r="1040">
+    <row r="1040" spans="14:14" ht="12.75">
       <c r="N1040" s="90"/>
     </row>
-    <row r="1041">
+    <row r="1041" spans="14:14" ht="12.75">
       <c r="N1041" s="90"/>
     </row>
-    <row r="1042">
+    <row r="1042" spans="14:14" ht="12.75">
       <c r="N1042" s="90"/>
     </row>
-    <row r="1043">
+    <row r="1043" spans="14:14" ht="12.75">
       <c r="N1043" s="90"/>
     </row>
-    <row r="1044">
+    <row r="1044" spans="14:14" ht="12.75">
       <c r="N1044" s="90"/>
     </row>
-    <row r="1045">
+    <row r="1045" spans="14:14" ht="12.75">
       <c r="N1045" s="90"/>
     </row>
-    <row r="1046">
+    <row r="1046" spans="14:14" ht="12.75">
       <c r="N1046" s="90"/>
     </row>
-    <row r="1047">
+    <row r="1047" spans="14:14" ht="12.75">
       <c r="N1047" s="90"/>
     </row>
-    <row r="1048">
+    <row r="1048" spans="14:14" ht="12.75">
       <c r="N1048" s="90"/>
     </row>
-    <row r="1049">
+    <row r="1049" spans="14:14" ht="12.75">
       <c r="N1049" s="90"/>
     </row>
-    <row r="1050">
+    <row r="1050" spans="14:14" ht="12.75">
       <c r="N1050" s="90"/>
     </row>
-    <row r="1051">
+    <row r="1051" spans="14:14" ht="12.75">
       <c r="N1051" s="90"/>
     </row>
-    <row r="1052">
+    <row r="1052" spans="14:14" ht="12.75">
       <c r="N1052" s="90"/>
     </row>
-    <row r="1053">
+    <row r="1053" spans="14:14" ht="12.75">
       <c r="N1053" s="90"/>
     </row>
-    <row r="1054">
+    <row r="1054" spans="14:14" ht="12.75">
       <c r="N1054" s="90"/>
     </row>
-    <row r="1055">
+    <row r="1055" spans="14:14" ht="12.75">
       <c r="N1055" s="90"/>
     </row>
-    <row r="1056">
+    <row r="1056" spans="14:14" ht="12.75">
       <c r="N1056" s="90"/>
     </row>
-    <row r="1057">
+    <row r="1057" spans="14:14" ht="12.75">
       <c r="N1057" s="90"/>
     </row>
-    <row r="1058">
+    <row r="1058" spans="14:14" ht="12.75">
       <c r="N1058" s="90"/>
     </row>
-    <row r="1059">
+    <row r="1059" spans="14:14" ht="12.75">
       <c r="N1059" s="90"/>
     </row>
-    <row r="1060">
+    <row r="1060" spans="14:14" ht="12.75">
       <c r="N1060" s="90"/>
     </row>
   </sheetData>
@@ -7355,10 +7673,12 @@
     <mergeCell ref="B114:F114"/>
     <mergeCell ref="B115:F115"/>
   </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="B26"/>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>